--- a/src/locales/translation_translated.xlsx
+++ b/src/locales/translation_translated.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -491,1660 +491,3139 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>usernameOrEmail</v>
+        <v>password</v>
       </c>
       <c r="B4" t="str">
-        <v>Username or Email</v>
+        <v>Password</v>
       </c>
       <c r="C4" t="str">
-        <v>ชื่อผู้ใช้ หรือ อีเมล์</v>
+        <v>รหัสผ่าน</v>
       </c>
       <c r="D4" t="str">
-        <v>用户名或电子邮件</v>
+        <v>密码</v>
       </c>
       <c r="E4" t="str">
-        <v>ユーザー名または電子メール</v>
+        <v>パスワード</v>
       </c>
       <c r="F4" t="str">
-        <v>Nombre de usuario o correo electrónico</v>
+        <v>Contraseña</v>
       </c>
       <c r="G4" t="str">
-        <v>အသုံးပြုသူအမည်သို့မဟုတ်အီးမေးလ်</v>
+        <v>လှျို့ဝှက်စကား</v>
       </c>
       <c r="H4" t="str">
-        <v>ຊື່ຜູ້ໃຊ້ຫຼືອີເມວ</v>
+        <v>ລະຫັດຜ່ານ</v>
       </c>
       <c r="I4" t="str">
-        <v>ឈ្មោះអ្នកប្រើឬអ៊ីមែល</v>
+        <v>ហក្យសមងាត់</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>password</v>
+        <v>admin</v>
       </c>
       <c r="B5" t="str">
-        <v>Password</v>
+        <v>Admin</v>
       </c>
       <c r="C5" t="str">
-        <v>รหัสผ่าน</v>
+        <v>ผู้ดูแลระบบ</v>
       </c>
       <c r="D5" t="str">
-        <v>密码</v>
+        <v>行政</v>
       </c>
       <c r="E5" t="str">
-        <v>パスワード</v>
+        <v>管理者</v>
       </c>
       <c r="F5" t="str">
-        <v>Contraseña</v>
+        <v>Administradora</v>
       </c>
       <c r="G5" t="str">
-        <v>လှျို့ဝှက်စကား</v>
+        <v>ရော်လွှာ</v>
       </c>
       <c r="H5" t="str">
-        <v>ລະຫັດຜ່ານ</v>
+        <v>ບໍລິຫານ</v>
       </c>
       <c r="I5" t="str">
-        <v>ហក្យសមងាត់</v>
+        <v>រដ្ឋបាល</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>forgotPassword</v>
+        <v>logout</v>
       </c>
       <c r="B6" t="str">
-        <v>Forget password…</v>
+        <v>Logout</v>
       </c>
       <c r="C6" t="str">
-        <v>ลืมรหัสผ่าน…</v>
+        <v>ออกจากระบบ</v>
       </c>
       <c r="D6" t="str">
-        <v>忘记密码…</v>
+        <v>注销</v>
       </c>
       <c r="E6" t="str">
-        <v>パスワードを忘れる…</v>
+        <v>ログアウト</v>
       </c>
       <c r="F6" t="str">
-        <v>Olvídese de la contraseña ...</v>
+        <v>Cierre de sesión</v>
       </c>
       <c r="G6" t="str">
-        <v>စကားဝှက်ကိုမေ့လိုက်ပါ ...</v>
+        <v>ဝင်</v>
       </c>
       <c r="H6" t="str">
-        <v>ລືມລະຫັດຜ່ານ ...</v>
+        <v>ອອກຈາກລະບົບ</v>
       </c>
       <c r="I6" t="str">
-        <v>ភ្លេចពាក្យសំងាត់ ...</v>
+        <v>ដមនើញ់បំផុតកេត</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>dontHaveUserGo</v>
+        <v>welcomeTxt</v>
       </c>
       <c r="B7" t="str">
-        <v xml:space="preserve">Don't have user? go </v>
+        <v>...Welcome to the ICCM2025 shop…</v>
       </c>
       <c r="C7" t="str">
-        <v>ยังไม่เคยใช้งาน?</v>
+        <v>... ยินดีต้อนรับสู่ร้าน ICCM2025 ...</v>
       </c>
       <c r="D7" t="str">
-        <v>没有用户？ 去</v>
+        <v>...欢迎来到ICCM2025商店…</v>
       </c>
       <c r="E7" t="str">
-        <v>ユーザーがいませんか？ 行く</v>
+        <v>... ICCM2025ショップへようこそ…</v>
       </c>
       <c r="F7" t="str">
-        <v>¿No tienes usuario? ir</v>
+        <v>... Bienvenido a la tienda ICCM2025 ...</v>
       </c>
       <c r="G7" t="str">
-        <v>အသုံးပြုသူမရှိဘူးလား သွား</v>
+        <v>... ICCCM25 ဆိုင်ခန်းကိုကြိုဆိုပါသည်။</v>
       </c>
       <c r="H7" t="str">
-        <v>ບໍ່ມີຜູ້ໃຊ້ບໍ? ໄປ</v>
+        <v>... ຍິນດີຕ້ອນຮັບສູ່ຮ້ານ ICCM2025 ...</v>
       </c>
       <c r="I7" t="str">
-        <v>មិនមានអ្នកប្រើប្រាស់ទេ? ធេវីដមនើរ</v>
+        <v>សូមស្វាគមន៍មកកាន់ហាង ICCM2025 ...</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>andCreateNewHotelForFree</v>
+        <v>checkOrderStatus</v>
       </c>
       <c r="B8" t="str">
-        <v>and create new hotel for free.</v>
+        <v>Check Order Status</v>
       </c>
       <c r="C8" t="str">
-        <v>และเริ่มสร้างโรงแรมใหม่ได้ฟรี.</v>
+        <v>ตรวจสอบสถานะคำสั่งซื้อ</v>
       </c>
       <c r="D8" t="str">
-        <v>并免费创建新酒店。</v>
+        <v>检查订单状态</v>
       </c>
       <c r="E8" t="str">
-        <v>新しいホテルを無​​料で作成します。</v>
+        <v>注文ステータスを確認してください</v>
       </c>
       <c r="F8" t="str">
-        <v>y crear un nuevo hotel gratis.</v>
+        <v>Verifique el estado del pedido</v>
       </c>
       <c r="G8" t="str">
-        <v>နှင့်အခမဲ့ဟိုတယ်အသစ်ဖန်တီးပါ။</v>
+        <v>အမိန့်အခြေအနေကိုစစ်ဆေးပါ</v>
       </c>
       <c r="H8" t="str">
-        <v>ແລະສ້າງໂຮງແຮມໃຫມ່ໂດຍບໍ່ເສຍຄ່າ.</v>
+        <v>ກວດສອບສະຖານະການສັ່ງຊື້</v>
       </c>
       <c r="I8" t="str">
-        <v>និងបង្កើតសណ្ឋាគារថ្មីដោយឥតគិតថ្លៃ។</v>
+        <v>ពិនិត្យមើលស្ថានភាពបញ្ជាទិញ</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>register</v>
+        <v>products</v>
       </c>
       <c r="B9" t="str">
-        <v>Register</v>
+        <v>Products</v>
       </c>
       <c r="C9" t="str">
-        <v>สมัคร</v>
+        <v>สินค้า</v>
       </c>
       <c r="D9" t="str">
-        <v>登记</v>
+        <v>产品</v>
       </c>
       <c r="E9" t="str">
-        <v>登録する</v>
+        <v>製品</v>
       </c>
       <c r="F9" t="str">
-        <v>Registro</v>
+        <v>Productos</v>
       </c>
       <c r="G9" t="str">
-        <v>စာရင်း</v>
+        <v>ထုတ်ကုန်များ</v>
       </c>
       <c r="H9" t="str">
-        <v>ລົງທະບຽນ</v>
+        <v>ຜະລິດຕະພັນ</v>
       </c>
       <c r="I9" t="str">
-        <v>ការចុហបហ្ជី</v>
+        <v>ផលិតផល</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>createPlace</v>
+        <v>clickToSelectProduct</v>
       </c>
       <c r="B10" t="str">
-        <v>Create Place</v>
+        <v>click to select product</v>
       </c>
       <c r="C10" t="str">
-        <v>สร้างสถานที่</v>
+        <v>คลิกเพื่อเลือกผลิตภัณฑ์</v>
       </c>
       <c r="D10" t="str">
-        <v>创建位置</v>
+        <v>点击选择产品</v>
       </c>
       <c r="E10" t="str">
-        <v>場所を作成します</v>
+        <v>クリックして製品を選択します</v>
       </c>
       <c r="F10" t="str">
-        <v>Crear lugar</v>
+        <v>Haga clic para seleccionar el producto</v>
       </c>
       <c r="G10" t="str">
-        <v>နေရာဖန်တီးပါ</v>
+        <v>ထုတ်ကုန်ကိုရွေးချယ်ရန်နှိပ်ပါ</v>
       </c>
       <c r="H10" t="str">
-        <v>ສ້າງສະຖານທີ່</v>
+        <v>ກົດເພື່ອເລືອກຜະລິດຕະພັນ</v>
       </c>
       <c r="I10" t="str">
-        <v>បង្កើតកន្លែង</v>
+        <v>ចុចដើម្បីជ្រើសរើសផលិតផល</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>termOfService</v>
+        <v>cart</v>
       </c>
       <c r="B11" t="str">
-        <v>Term of Service</v>
+        <v>Cart</v>
       </c>
       <c r="C11" t="str">
-        <v>ข้อตกลงและเงื่อนไข</v>
+        <v>เกวียน</v>
       </c>
       <c r="D11" t="str">
-        <v>服务期限</v>
+        <v>大车</v>
       </c>
       <c r="E11" t="str">
-        <v>サービス期間</v>
+        <v>カート</v>
       </c>
       <c r="F11" t="str">
-        <v>Término</v>
+        <v>Carro</v>
       </c>
       <c r="G11" t="str">
-        <v>ဝန်ဆောင်မှုသက်တမ်း</v>
+        <v>လှည်း</v>
       </c>
       <c r="H11" t="str">
-        <v>ໄລຍະບໍລິການ</v>
+        <v>ລົດເຂັນ</v>
       </c>
       <c r="I11" t="str">
-        <v>ល័ក្ខខ័ណ្ឌនៃសេវាកម្ម</v>
+        <v>រតេហ</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>next</v>
+        <v>checkout</v>
       </c>
       <c r="B12" t="str">
-        <v>Next</v>
+        <v>Checkout</v>
       </c>
       <c r="C12" t="str">
-        <v>ต่อไป</v>
+        <v>การชำระเงิน</v>
       </c>
       <c r="D12" t="str">
-        <v>下一个</v>
+        <v>查看</v>
       </c>
       <c r="E12" t="str">
-        <v>次</v>
+        <v>チェックアウト</v>
       </c>
       <c r="F12" t="str">
-        <v>Próxima</v>
+        <v>Verificar</v>
       </c>
       <c r="G12" t="str">
-        <v>နောက်တစ်ခု</v>
+        <v>ထွက်ခွာသည်</v>
       </c>
       <c r="H12" t="str">
-        <v>ຕໍ່ໄປ</v>
+        <v>ດ່ານກວດກາ</v>
       </c>
       <c r="I12" t="str">
-        <v>បន្ទាប់បិនេហ</v>
+        <v>CheckoUT</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>back</v>
+        <v>total</v>
       </c>
       <c r="B13" t="str">
-        <v>Back</v>
+        <v>Total :</v>
       </c>
       <c r="C13" t="str">
-        <v>ย้อนกลับ</v>
+        <v>ทั้งหมด :</v>
       </c>
       <c r="D13" t="str">
-        <v>后退</v>
+        <v>全部的 ：</v>
       </c>
       <c r="E13" t="str">
-        <v>戻る</v>
+        <v>合計 ：</v>
       </c>
       <c r="F13" t="str">
-        <v>Atrás</v>
+        <v>Total :</v>
       </c>
       <c r="G13" t="str">
-        <v>ပြန်.</v>
+        <v>စုစုပေါင်း:</v>
       </c>
       <c r="H13" t="str">
-        <v>ກັບຄືນໄປບ່ອນ</v>
+        <v>ຈໍານວນທັງຫມົດ:</v>
       </c>
       <c r="I13" t="str">
-        <v>រតលប់</v>
+        <v>សរុប:</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>confirm</v>
+        <v>baht</v>
       </c>
       <c r="B14" t="str">
-        <v>Confirm</v>
+        <v>THB</v>
       </c>
       <c r="C14" t="str">
-        <v>ตกลง</v>
+        <v>THB</v>
       </c>
       <c r="D14" t="str">
-        <v>确认</v>
+        <v>THB</v>
       </c>
       <c r="E14" t="str">
-        <v>確認する</v>
+        <v>THB</v>
       </c>
       <c r="F14" t="str">
-        <v>Confirmar</v>
+        <v>THB</v>
       </c>
       <c r="G14" t="str">
-        <v>အတည်ပြု</v>
+        <v>thb</v>
       </c>
       <c r="H14" t="str">
-        <v>ຢືນຢັນ</v>
+        <v>ບາດ</v>
       </c>
       <c r="I14" t="str">
-        <v>បហ្ជាក់</v>
+        <v>បាត</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>verify</v>
+        <v>pay</v>
       </c>
       <c r="B15" t="str">
-        <v>Verify</v>
+        <v>Checkout</v>
       </c>
       <c r="C15" t="str">
-        <v>ตรวจสอบ</v>
+        <v>การชำระเงิน</v>
       </c>
       <c r="D15" t="str">
-        <v>核实</v>
+        <v>查看</v>
       </c>
       <c r="E15" t="str">
-        <v>確認する</v>
+        <v>チェックアウト</v>
       </c>
       <c r="F15" t="str">
         <v>Verificar</v>
       </c>
       <c r="G15" t="str">
-        <v>မှန်ကေြင်းဝန်ခံ</v>
+        <v>ထွက်ခွာသည်</v>
       </c>
       <c r="H15" t="str">
-        <v>ກວດສອບ</v>
+        <v>ດ່ານກວດກາ</v>
       </c>
       <c r="I15" t="str">
-        <v>ផ្ទ្យេងផ្ទាត់</v>
+        <v>CheckoUT</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>inputYourEmailThenClickVerify</v>
+        <v>confirmOrder</v>
       </c>
       <c r="B16" t="str">
-        <v>Input your email then click</v>
+        <v>Confirm Order</v>
       </c>
       <c r="C16" t="str">
-        <v>ใส่อีเมล์ของคุณ แล้วคลิ๊ก</v>
+        <v>ยืนยันคำสั่งซื้อ</v>
       </c>
       <c r="D16" t="str">
-        <v>输入您的电子邮件，然后单击</v>
+        <v>确认订单</v>
       </c>
       <c r="E16" t="str">
-        <v>メールを入力し、クリックします</v>
+        <v>注文を確認します</v>
       </c>
       <c r="F16" t="str">
-        <v>Ingrese su correo electrónico y luego haga clic en</v>
+        <v>Confirmar orden</v>
       </c>
       <c r="G16" t="str">
-        <v>သင်၏အီးမေးလ်ကို input လုပ်ပါ</v>
+        <v>အတည်ပြုရန်အမိန့်</v>
       </c>
       <c r="H16" t="str">
-        <v>ປ້ອນອີເມວຂອງທ່ານແລ້ວກົດ</v>
+        <v>ຢືນຢັນຄໍາສັ່ງ</v>
       </c>
       <c r="I16" t="str">
-        <v>បញ្ចូលអ៊ីមែលរបស់អ្នកបន្ទាប់មកចុច</v>
+        <v>បញ្ជាក់ការបញ្ជាទិញ</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>pleaseInputTheVerificationCodeThatWasSentToYourEmail</v>
+        <v>backToCart</v>
       </c>
       <c r="B17" t="str">
-        <v>Please input the verification code that was sent to your email.</v>
+        <v>Back to cart</v>
       </c>
       <c r="C17" t="str">
-        <v>กรุณาใส่รหัสยืนยันที่ส่งไปยังอีเมลของคุณ</v>
+        <v>กลับไปที่รถเข็น</v>
       </c>
       <c r="D17" t="str">
-        <v>请输入发送到您的电子邮件的验证代码。</v>
+        <v>回到购物车</v>
       </c>
       <c r="E17" t="str">
-        <v>メールに送信された検証コードを入力してください。</v>
+        <v>カートに戻ります</v>
       </c>
       <c r="F17" t="str">
-        <v>Ingrese el código de verificación que se envió a su correo electrónico.</v>
+        <v>Volver al carrito</v>
       </c>
       <c r="G17" t="str">
-        <v>ကျေးဇူးပြု. သင်၏အီးမေးလ်သို့ပို့လိုက်သောအတည်ပြုကုဒ်ကိုထည့်ပါ။</v>
+        <v>လှည်းသို့ပြန်သွားသည်</v>
       </c>
       <c r="H17" t="str">
-        <v>ກະລຸນາໃສ່ລະຫັດການຢັ້ງຢືນທີ່ຖືກສົ່ງໄປທີ່ອີເມວຂອງທ່ານ.</v>
+        <v>ກັບໄປທີ່ລົດເຂັນ</v>
       </c>
       <c r="I17" t="str">
-        <v>សូមបញ្ចូលលេខកូដផ្ទៀងផ្ទាត់ដែលត្រូវបានផ្ញើទៅអ៊ីម៉ែលរបស់អ្នក។</v>
+        <v>ត្រលប់ទៅរទេះវិញ</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>email</v>
+        <v>readyToPay</v>
       </c>
       <c r="B18" t="str">
-        <v>Email</v>
+        <v>Ready for pay</v>
       </c>
       <c r="C18" t="str">
-        <v>อีเมล์</v>
+        <v>พร้อมสำหรับการจ่ายเงิน</v>
       </c>
       <c r="D18" t="str">
-        <v>电子邮件</v>
+        <v>准备付款</v>
       </c>
       <c r="E18" t="str">
-        <v>メール</v>
+        <v>支払いの準備ができました</v>
       </c>
       <c r="F18" t="str">
-        <v>Correo electrónico</v>
+        <v>Listo para pagar</v>
       </c>
       <c r="G18" t="str">
-        <v>အီးမေးလ်</v>
+        <v>လစာအဘို့အဆင်သင့်</v>
       </c>
       <c r="H18" t="str">
-        <v>ອີເມວ</v>
+        <v>ກຽມພ້ອມສໍາລັບການຈ່າຍ</v>
       </c>
       <c r="I18" t="str">
-        <v>អ៊ីមែល</v>
+        <v>ត្រៀមខ្លួនសម្រាប់ប្រាក់ខែ</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>userName</v>
+        <v>email</v>
       </c>
       <c r="B19" t="str">
-        <v>Username</v>
+        <v>Email</v>
       </c>
       <c r="C19" t="str">
-        <v>ชื่อผู้ใช้</v>
+        <v>อีเมล</v>
       </c>
       <c r="D19" t="str">
-        <v>用户名</v>
+        <v>电子邮件</v>
       </c>
       <c r="E19" t="str">
-        <v>ユーザー名</v>
+        <v>メール</v>
       </c>
       <c r="F19" t="str">
-        <v>Nombre de usuario</v>
+        <v>Correo electrónico</v>
       </c>
       <c r="G19" t="str">
-        <v>အသုံးပြုသူ</v>
+        <v>အီးမေးလ်</v>
       </c>
       <c r="H19" t="str">
-        <v>ສັນຍາລັກ</v>
+        <v>ອີເມວ</v>
       </c>
       <c r="I19" t="str">
-        <v>ឈ្មោះអ្នក</v>
+        <v>អ៊ីមែល</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>confirmPassword</v>
+        <v>name</v>
       </c>
       <c r="B20" t="str">
-        <v>Confirm Password</v>
+        <v>Name</v>
       </c>
       <c r="C20" t="str">
-        <v>ใส่รหัสผ่านอีกครั้ง</v>
+        <v>ชื่อ</v>
       </c>
       <c r="D20" t="str">
-        <v>确认密码</v>
+        <v>姓名</v>
       </c>
       <c r="E20" t="str">
-        <v>パスワードを認証する</v>
+        <v>名前</v>
       </c>
       <c r="F20" t="str">
-        <v>confirmar Contraseña</v>
+        <v>Nombre</v>
       </c>
       <c r="G20" t="str">
-        <v>စကားဝှက်အတည်ပြုခြင်း</v>
+        <v>နံမယ်</v>
       </c>
       <c r="H20" t="str">
-        <v>ຢືນຢັນລະຫັດຜ່ານ</v>
+        <v>ຊື່</v>
       </c>
       <c r="I20" t="str">
-        <v>បញ្ជាក់ពាក្យសំងាត់</v>
+        <v>ឈ្ផោហ</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>error</v>
+        <v>deliveryAddress</v>
       </c>
       <c r="B21" t="str">
-        <v>Error</v>
+        <v>Delivery address</v>
       </c>
       <c r="C21" t="str">
-        <v>ผิดพลาด</v>
+        <v>ที่อยู่จัดส่ง</v>
       </c>
       <c r="D21" t="str">
-        <v>错误</v>
+        <v>送货地址</v>
       </c>
       <c r="E21" t="str">
-        <v>エラー</v>
+        <v>配達アドレス</v>
       </c>
       <c r="F21" t="str">
-        <v>Error</v>
+        <v>Dirección de entrega</v>
       </c>
       <c r="G21" t="str">
-        <v>အမှား</v>
+        <v>ပေးပို့လိပ်စာ</v>
       </c>
       <c r="H21" t="str">
-        <v>ຜິດ</v>
+        <v>ທີ່ຢູ່ສົ່ງ</v>
       </c>
       <c r="I21" t="str">
-        <v>កមហុស</v>
+        <v>អាសយដ្ឋានដឹកជញ្ជូន</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>errEmailIsInCorrectFormat</v>
+        <v>bank</v>
       </c>
       <c r="B22" t="str">
-        <v>Email is incorrect format!</v>
+        <v>Bank</v>
       </c>
       <c r="C22" t="str">
-        <v>รูปแบบอีเมล์ไม่ถูกต้อง</v>
+        <v>ธนาคาร</v>
       </c>
       <c r="D22" t="str">
-        <v>电子邮件格式不正确！</v>
+        <v>银行</v>
       </c>
       <c r="E22" t="str">
-        <v>電子メールは間違った形式です！</v>
+        <v>銀行</v>
       </c>
       <c r="F22" t="str">
-        <v>¡El correo electrónico es un formato incorrecto!</v>
+        <v>Banco</v>
       </c>
       <c r="G22" t="str">
-        <v>အီးမေးလ်မမှန်ကန်ပါ။</v>
+        <v>ကမ်း</v>
       </c>
       <c r="H22" t="str">
-        <v>ອີເມວແມ່ນຮູບແບບທີ່ບໍ່ຖືກຕ້ອງ!</v>
+        <v>ທະນາຄານ</v>
       </c>
       <c r="I22" t="str">
-        <v>អ៊ីមែលគឺជាទ្រង់ទ្រាយមិនត្រឹមត្រូវ!</v>
+        <v>ធនាការ</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>mailSubVerificationCode</v>
+        <v>bankTxt</v>
       </c>
       <c r="B23" t="str">
-        <v>[BesRoom] Verification Code!</v>
+        <v>Siam Comercial</v>
       </c>
       <c r="C23" t="str">
-        <v>[BesRoom] รหัสยืนยัน!</v>
+        <v>สยามพาณิชย์</v>
       </c>
       <c r="D23" t="str">
-        <v>[BESROOM]验证代码！</v>
+        <v>暹罗广告</v>
       </c>
       <c r="E23" t="str">
-        <v>[ベスルーム]検証コード！</v>
+        <v>サイアムコマーシャル</v>
       </c>
       <c r="F23" t="str">
-        <v>[Besroom] Código de verificación!</v>
+        <v>Comercial de siam</v>
       </c>
       <c r="G23" t="str">
-        <v>[Besroom] အတည်ပြုကုဒ်!</v>
+        <v>Siam စီးပွားဖြစ်</v>
       </c>
       <c r="H23" t="str">
-        <v>[BeSroom] ລະຫັດການຢັ້ງຢືນ!</v>
+        <v>ການຄ້າສາi</v>
       </c>
       <c r="I23" t="str">
-        <v>លេខកូដផ្ទៀងផ្ទាត់!</v>
+        <v>ពាណិជ្ជកម្មសៀម</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>mailTxt1</v>
+        <v>accNo</v>
       </c>
       <c r="B24" t="str">
-        <v>Dear value customer,</v>
+        <v>Acc. No.</v>
       </c>
       <c r="C24" t="str">
-        <v>เรียน ลูกค้าที่น่ารักของเรา,</v>
+        <v>acc. เลขที่</v>
       </c>
       <c r="D24" t="str">
-        <v>亲爱的价值客户，</v>
+        <v>ACC。 不。</v>
       </c>
       <c r="E24" t="str">
-        <v>親愛なる価値の顧客、</v>
+        <v>acc。 いいえ。</v>
       </c>
       <c r="F24" t="str">
-        <v>Estimada cliente,</v>
+        <v>Accado No.</v>
       </c>
       <c r="G24" t="str">
-        <v>ချစ်ခင်ရပါသောတန်ဖိုးဖောက်သည်,</v>
+        <v>ACC ။ အမှတ်</v>
       </c>
       <c r="H24" t="str">
-        <v>ລູກຄ້າທີ່ມີຄຸນຄ່າທີ່ຮັກແພງ,</v>
+        <v>acert. ບໍ່.</v>
       </c>
       <c r="I24" t="str">
-        <v>អតិថិជនតម្លៃជាទីគោរព,</v>
+        <v>ACC ។ ការដុត</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>mailTxt2</v>
+        <v>accNoTxt</v>
       </c>
       <c r="B25" t="str">
-        <v>your verification code is: xxxxxx</v>
+        <v>111-1-11111-1</v>
       </c>
       <c r="C25" t="str">
-        <v xml:space="preserve">รหัสยืนยันของคุณคือ: xxxxxx </v>
+        <v>111-1-11111-1</v>
       </c>
       <c r="D25" t="str">
-        <v>您的验证代码是：xxxxxx</v>
+        <v>111-111111-1</v>
       </c>
       <c r="E25" t="str">
-        <v>確認コードはxxxxxxです</v>
+        <v>111-1-11111-1-</v>
       </c>
       <c r="F25" t="str">
-        <v>Su código de verificación es: xxxxxx</v>
+        <v>111-1-11111-1</v>
       </c>
       <c r="G25" t="str">
-        <v>သင်၏အတည်ပြုကုဒ်သည် XXXXXX ဖြစ်သည်</v>
+        <v>111-1-11111-1</v>
       </c>
       <c r="H25" t="str">
-        <v>ລະຫັດຢືນຢັນຂອງທ່ານແມ່ນ: xxxxxx</v>
+        <v>111-1-11111-1</v>
       </c>
       <c r="I25" t="str">
-        <v>លេខកូដផ្ទៀងផ្ទាត់របស់អ្នកគឺ: XXXXXX</v>
+        <v>111-11-1111-111-11-11-1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>mailTxt3</v>
+        <v>accName</v>
       </c>
       <c r="B26" t="str">
-        <v>Please confirm this code within 15 minutes.</v>
+        <v>Acc. Name</v>
       </c>
       <c r="C26" t="str">
-        <v>กรุณายืนยันรหัสนี้ภายใน 15 นาที</v>
+        <v>acc. ชื่อ</v>
       </c>
       <c r="D26" t="str">
-        <v>请在15分钟内确认此代码。</v>
+        <v>ACC。 姓名</v>
       </c>
       <c r="E26" t="str">
-        <v>15分以内にこのコードを確認してください。</v>
+        <v>acc。 名前</v>
       </c>
       <c r="F26" t="str">
-        <v>Confirme este código en 15 minutos.</v>
+        <v>Accado Nombre</v>
       </c>
       <c r="G26" t="str">
-        <v>ကျေးဇူးပြု. ဤကုဒ်ကို 15 မိနစ်အတွင်းအတည်ပြုပါ။</v>
+        <v>ACC ။ နံမယ်</v>
       </c>
       <c r="H26" t="str">
-        <v>ກະລຸນາຢືນຢັນລະຫັດນີ້ພາຍໃນ 15 ນາທີ.</v>
+        <v>acert. ຊື່</v>
       </c>
       <c r="I26" t="str">
-        <v>សូមបញ្ជាក់លេខកូដនេះក្នុងរយៈពេល 15 នាទី។</v>
+        <v>ACC ។ ឈ្ផោហ</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>mailTxt4</v>
+        <v>accNameTxt</v>
       </c>
       <c r="B27" t="str">
-        <v>Best Regrads,</v>
+        <v>Mr. John Smith</v>
       </c>
       <c r="C27" t="str">
-        <v>ขอแสดงความนับถือ,</v>
+        <v>นายจอห์นสมิ ธ</v>
       </c>
       <c r="D27" t="str">
-        <v>最好的重制，</v>
+        <v>约翰·史密斯先生</v>
       </c>
       <c r="E27" t="str">
-        <v>最高の再ルーラド、</v>
+        <v>ジョン・スミス氏</v>
       </c>
       <c r="F27" t="str">
-        <v>Mejores regresiones,</v>
+        <v>Sr. John Smith</v>
       </c>
       <c r="G27" t="str">
-        <v>အကောင်းဆုံး regrap</v>
+        <v>Mr. John Smith</v>
       </c>
       <c r="H27" t="str">
-        <v>regrads ທີ່ດີທີ່ສຸດ,</v>
+        <v>ທ່ານ John Smith</v>
       </c>
       <c r="I27" t="str">
-        <v>ការតំរែតំរង់ល្អបំផុត</v>
+        <v>លោកចនស្មីត</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>mailTxt5</v>
+        <v>uploadSlip</v>
       </c>
       <c r="B28" t="str">
-        <v>BesRoom Admin</v>
+        <v>Upload Slip</v>
       </c>
       <c r="C28" t="str">
-        <v>ฝ่ายบริหาร BesRoom</v>
+        <v>อัพโหลดสลิป</v>
       </c>
       <c r="D28" t="str">
-        <v>旁边的管理员</v>
+        <v>上传单</v>
       </c>
       <c r="E28" t="str">
-        <v>ベスルーム管理者</v>
+        <v>スリップをアップロードします</v>
       </c>
       <c r="F28" t="str">
-        <v>Admin de bissroom</v>
+        <v>Subiendo el deslizamiento</v>
       </c>
       <c r="G28" t="str">
-        <v>Besroom admin</v>
+        <v>တင်ပါးစလစ်</v>
       </c>
       <c r="H28" t="str">
-        <v>ຜູ້ບໍລິຫານ Besroom</v>
+        <v>ອັບໂຫລດ</v>
       </c>
       <c r="I28" t="str">
-        <v>គ្រប់គ្រងផ្នែកផ្សេងៗ</v>
+        <v>ផ្ទុកឡើង</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>errEmailDuplicate</v>
+        <v>sendOrder</v>
       </c>
       <c r="B29" t="str">
-        <v>This email is already registered. Please try to log in instead.</v>
+        <v>Submit Order</v>
       </c>
       <c r="C29" t="str">
-        <v>อีเมลนี้ได้ลงทะเบียนไว้แล้ว กรุณาเข้าสู่ระบบแทน</v>
+        <v>ส่งคำสั่งซื้อ</v>
       </c>
       <c r="D29" t="str">
-        <v>此邮箱号已被注册。 请尝试登录。</v>
+        <v>提交订单</v>
       </c>
       <c r="E29" t="str">
-        <v>このEメールはすでに登録されています。 代わりにログインしてみてください。</v>
+        <v>注文を送信します</v>
       </c>
       <c r="F29" t="str">
-        <v>Este correo electrónico ya está registrado. Intente iniciar sesión en su lugar.</v>
+        <v>Enviar orden</v>
       </c>
       <c r="G29" t="str">
-        <v>ဤအီးမေးလ်မှာမှတ်ပုံတင်နှင့်ပြီးသားဖြစ်သည်။ ကျေးဇူးပြု. ဝင်ရန်ကြိုးစားပါ။</v>
+        <v>တင်သွင်းရန်</v>
       </c>
       <c r="H29" t="str">
-        <v>ອີເມວນີ້ຖືກລົງທະບຽນແລ້ວ. ກະລຸນາພະຍາຍາມເຂົ້າສູ່ລະບົບ.</v>
+        <v>ສົ່ງຄໍາສັ່ງ</v>
       </c>
       <c r="I29" t="str">
-        <v>អ៊ីមែលនេះបានចុះឈ្មោះរួចហើយ។ សូមព្យាយាមចូលជំនួសវិញ។</v>
+        <v>ដាក់ស្នើបទបញ្ជា</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>errCodeIsEmpty</v>
+        <v>prod1Name</v>
       </c>
       <c r="B30" t="str">
-        <v>Please input code.</v>
+        <v>Running Shirt</v>
       </c>
       <c r="C30" t="str">
-        <v>กรุณาใส่รหัสยืนยัน</v>
+        <v>เสื้อวิ่ง</v>
       </c>
       <c r="D30" t="str">
-        <v>请输入代码。</v>
+        <v>跑步衬衫</v>
       </c>
       <c r="E30" t="str">
-        <v>コードを入力してください。</v>
+        <v>ランニングシャツ</v>
       </c>
       <c r="F30" t="str">
-        <v>Ingrese el código.</v>
+        <v>Camiseta</v>
       </c>
       <c r="G30" t="str">
-        <v>ကျေးဇူးပြု. ထည့်သွင်းပါ။</v>
+        <v>အပြေးရှပ်အင်္ကျီ</v>
       </c>
       <c r="H30" t="str">
-        <v>ກະລຸນາໃສ່ລະຫັດປ້ອນຂໍ້ມູນ.</v>
+        <v>ເສື້ອແລ່ນ</v>
       </c>
       <c r="I30" t="str">
-        <v>សូមបញ្ចូលលេខកូដ។</v>
+        <v>អាវរត់</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>errInvalidOrExpiredCode</v>
+        <v>prod1Detail</v>
       </c>
       <c r="B31" t="str">
-        <v>Invalid or code is expired.</v>
+        <v>The Super Diamond fabric is specially woven to elevate the quality of running shirts, making them stand out and unique. Its textured yet smooth surface provides a distinct feel, while offering excellent breathability. This ensures the fabric dries quickly, feels light and comfortable—perfect for intense workouts with heavy sweating.</v>
       </c>
       <c r="C31" t="str">
-        <v>รหัสไม่ตรง หรือ หมดอายุ</v>
+        <v>ผ้า Super Diamond ถูกทอเป็นพิเศษเพื่อยกระดับคุณภาพของเสื้อวิ่งทำให้มันโดดเด่นและไม่เหมือนใคร พื้นผิวที่มีพื้นผิว แต่เรียบนั้นให้ความรู้สึกที่แตกต่างกันในขณะที่ให้การระบายอากาศที่ยอดเยี่ยม สิ่งนี้ทำให้มั่นใจได้ว่าผ้าแห้งอย่างรวดเร็วรู้สึกเบาและสะดวกสบาย - สมบูรณ์แบบสำหรับการออกกำลังกายที่เข้มข้นด้วยเหงื่อออกหนัก</v>
       </c>
       <c r="D31" t="str">
-        <v>无效或代码已过期。</v>
+        <v>超级钻石面料专门编织，以提高跑步衬衫的质量，使它们脱颖而出且独特。 它的质感但光滑的表面可提供独特的感觉，同时提供出色的透气性。 这样可以确保织物迅速干燥，感觉轻巧舒适 - 完美地锻炼出大量出汗。</v>
       </c>
       <c r="E31" t="str">
-        <v>無効またはコードが期限切れになります。</v>
+        <v>スーパーダイヤモンドの生地は、ランニングシャツの品質を高めるために特別に織り込まれており、目立つユニークなシャツにしています。 そのテクスチャーされたが滑らかな表面は、優れた通気性を提供しながら、独特の感触を提供します。 これにより、生地が素早く乾燥し、軽くて快適に感じます。激しい汗をかいた激しいトレーニングに最適です。</v>
       </c>
       <c r="F31" t="str">
-        <v>Inválida o el código ha caducado.</v>
+        <v>La tela Super Diamond está especialmente tejida para elevar la calidad de las camisas para correr, haciéndolas destacadas y únicas. Su superficie texturizada pero lisa proporciona una sensación distinta, al tiempo que ofrece una excelente transpirabilidad. Esto garantiza que la tela se seque rápidamente, se siente ligera y cómoda, perfecta para entrenamientos intensos con una fuerte sudoración.</v>
       </c>
       <c r="G31" t="str">
-        <v>မမှန်ကန်သောသို့မဟုတ်ကုဒ်သက်တမ်းကုန်ဆုံးသည်။</v>
+        <v>စူပါစိန်အထည်သည်အလွန်အမင်းယက်စိမ်းလန်းသောအပြေးရှပ်အင်္ကျီများ၏အရည်အသွေးကိုမြှင့်တင်ရန်, ၎င်း၏ textured သေးငယ်တဲ့ချောချောမွေ့မွေ့မျက်နှာပြင်သည်အလွန်ဆိုးရှားလွယ်မှုကိုကမ်းလှမ်းနေစဉ်ကွဲပြားသောခံစားမှုကိုပေးသည်။ ၎င်းသည်အထည်အလိပ်လျင်မြန်စွာခန်းခြောက်သည်, လေးလံသောချွေးများနှင့်ပြင်းထန်သောလေ့ကျင့်ခန်းများအတွက်အလင်းရောင်နှင့်အဆင်ပြေချောမွေ့စေသည်။</v>
       </c>
       <c r="H31" t="str">
-        <v>ບໍ່ຖືກຕ້ອງຫຼືລະຫັດຫມົດກໍານົດ.</v>
+        <v>ຜ້າເພັດ Super ແມ່ນແສ່ວພິເສດເປັນພິເສດໃນການຍົກຄຸນນະພາບຂອງເສື້ອທີ່ໃຊ້, ເຮັດໃຫ້ພວກມັນໂດດເດັ່ນແລະເປັນເອກະລັກສະເພາະ. ພື້ນຜິວທີ່ມີໂຄງສ້າງຍັງມີຄວາມຮູ້ສຶກທີ່ແຕກຕ່າງ, ໃນຂະນະທີ່ສະເຫນີລົມຫາຍໃຈທີ່ດີເລີດ. ນີ້ຮັບປະກັນຜ້າແຫ້ງໄດ້ໄວ, ຮູ້ສຶກເບົາແລະສະບາຍດີ, ດີເລີດສໍາລັບການອອກກໍາລັງກາຍທີ່ຮຸນແຮງ.</v>
       </c>
       <c r="I31" t="str">
-        <v>មិនត្រឹមត្រូវឬលេខកូដត្រូវបានផុតកំណត់។</v>
+        <v>ក្រណាត់ពេជ្រទំនើបគឺត្បាញយ៉ាងពិសេសដើម្បីលើកកំពស់គុណភាពនៃអាវដែលកំពុងរត់ដែលធ្វើឱ្យពួកគេលេចធ្លោនិងប្លែក។ ប្រភពវាយនភាពរបស់វាមិនទាន់រលូនផ្តល់នូវអារម្មណ៍ខុសគ្នាខណៈពេលដែលផ្តល់នូវការដកដង្ហើមដ៏ល្អបំផុត។ នេះធានាថាក្រណាត់ស្ងួតយ៉ាងឆាប់រហ័សមានអារម្មណ៍ស្រាលនិងមានផាសុកភាពល្អឥតខ្ចោះសម្រាប់ការហាត់ប្រាណខ្លាំងដោយបែកញើសខ្លាំង។</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>errUserNameIsEmpty</v>
+        <v>prod2Name</v>
       </c>
       <c r="B32" t="str">
-        <v>Please input user name.</v>
+        <v>Running Short</v>
       </c>
       <c r="C32" t="str">
-        <v>กรุณาใส่ชื่อผู้ใช้</v>
+        <v>วิ่งสั้น</v>
       </c>
       <c r="D32" t="str">
-        <v>请输入用户名。</v>
+        <v>跑步短</v>
       </c>
       <c r="E32" t="str">
-        <v>ユーザー名を入力してください。</v>
+        <v>短く走っています</v>
       </c>
       <c r="F32" t="str">
-        <v>Ingrese el nombre de usuario.</v>
+        <v>Corriendo corto</v>
       </c>
       <c r="G32" t="str">
-        <v>ကျေးဇူးပြု. သုံးစွဲသူအမည်ကိုထည့်ပါ။</v>
+        <v>အပြေး</v>
       </c>
       <c r="H32" t="str">
-        <v>ກະລຸນາປ້ອນຊື່ຜູ້ໃຊ້.</v>
+        <v>ແລ່ນສັ້ນ</v>
       </c>
       <c r="I32" t="str">
-        <v>សូមបញ្ចូលឈ្មោះអ្នកប្រើ។</v>
+        <v>ដំណើរការខ្លី</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>errUserNameTooShort</v>
+        <v>prod2Detail</v>
       </c>
       <c r="B33" t="str">
-        <v>User name is too short.</v>
+        <v>Micropeach fabric is comfortable to wear, with shorts featuring an elastic waistband and an inner drawstring. The material is soft, smooth, and breathable, helping to release heat effectively. It’s quick-drying, odor-resistant, and made with department store-grade quality.</v>
       </c>
       <c r="C33" t="str">
-        <v>ชื่อผู้ใช้มีความยาวไม่พอ</v>
+        <v>ผ้า Micropeach สวมใส่สบายพร้อมกางเกงขาสั้นที่มีเอวยืดหยุ่นและ drawstring ด้านใน วัสดุนั้นนุ่มเรียบและระบายอากาศได้ช่วยในการปล่อยความร้อนได้อย่างมีประสิทธิภาพ มันแห้งเร็วทนต่อกลิ่นและทำด้วยคุณภาพของห้างสรรพสินค้าเกรด</v>
       </c>
       <c r="D33" t="str">
-        <v>用户名太短。</v>
+        <v>Micropeach织物舒适穿着，短裤带有弹性腰带和内部束带。 该材料柔软，光滑且透气，有助于有效释放热量。 它是快速干燥的，耐味的，并以百货商店级的质量制成。</v>
       </c>
       <c r="E33" t="str">
-        <v>ユーザー名が短すぎます。</v>
+        <v>マイクロペーチの生地は快適で、弾力性のあるウエストバンドと内側のドローストリングを備えたショートパンツがあります。 材料は柔らかく、滑らかで、通気性があり、熱を効果的に放出するのに役立ちます。 迅速に乾燥し、臭気が耐えられ、デパートグレードの品質で作られています。</v>
       </c>
       <c r="F33" t="str">
-        <v>El nombre de usuario es demasiado corto.</v>
+        <v>La tela de Micropeach es cómoda de usar, con pantalones cortos con una cintura elástica y una cordillera interior. El material es suave, suave y transpirable, lo que ayuda a liberar el calor de manera efectiva. Es de secado rápido, resistente al olor y está hecho con calidad de grado en los que los escaparates del departamento.</v>
       </c>
       <c r="G33" t="str">
-        <v>အသုံးပြုသူအမည်သည်တိုလွန်းသည်။</v>
+        <v>Micropereach Fabric သည် 0 တ်ဆင်ရန်အဆင်ပြေသည်, ပစ္စည်းသည်အပူကိုထိထိရောက်ရောက်ဖြန့်ချိရန်ကူညီခြင်းအားဖြင့်ပျော့ပျောင်း။ ချောမွေ့ပြီးရှူရှိုက်ခြင်း, ၎င်းသည်ခြောက်သွေ့သော, အနံ့ခံနိုင်ရည်ရှိသည့်,</v>
       </c>
       <c r="H33" t="str">
-        <v>ຊື່ຜູ້ໃຊ້ແມ່ນສັ້ນເກີນໄປ.</v>
+        <v>ຜ້າປູພື້ນ Micropeach ແມ່ນສະດວກສະບາຍໃນການສວມໃສ່, ເຊິ່ງສັ້ນທີ່ມີສາຍແອວ elastic ແລະ drawstring ພາຍໃນ. ອຸປະກອນການແມ່ນອ່ອນ, ລຽບ, ແລະລົມຫາຍໃຈ, ຊ່ວຍໃຫ້ປ່ອຍຄວາມຮ້ອນໄດ້ຢ່າງມີປະສິດທິຜົນ. ມັນແຫ້ງໄວ, ທົນທານຕໍ່ກິ່ນ, ແລະເຮັດດ້ວຍຄຸນນະພາບຂອງຫ້ອງຮຽນ.</v>
       </c>
       <c r="I33" t="str">
-        <v>ឈ្មោះអ្នកប្រើខ្លីពេក។</v>
+        <v>ក្រណាត់មីក្រូក្រណាត់មានផាសុកភាពក្នុងការពាក់ដោយខ្លីដែលបង្ហាញថាមានខ្សែក្រវ៉ាត់យឺតនិងខ្សែពួរខាងក្នុង។ សម្ភារៈគឺទន់រលោងរលោងហើយអាចដកដង្ហើមបានជួយបញ្ចេញកំដៅឱ្យមានប្រសិទ្ធភាព។ វាស្ងួតរហ័សក្លិនក្លិននិងធ្វើជាមួយគុណភាពហាងលក់ទំនិញ។</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>errUserDuplicate</v>
+        <v>prod3Name</v>
       </c>
       <c r="B34" t="str">
-        <v>This user name already exist.</v>
+        <v>MAO Buff</v>
       </c>
       <c r="C34" t="str">
-        <v>ชื่อผู้ใช้ซ้ำกับบุคคลอื่น</v>
+        <v>เหมาบัฟ</v>
       </c>
       <c r="D34" t="str">
-        <v>此用户名已经存在。</v>
+        <v>毛buff</v>
       </c>
       <c r="E34" t="str">
-        <v>このユーザー名はすでに存在します。</v>
+        <v>マオバフ</v>
       </c>
       <c r="F34" t="str">
-        <v>Este nombre de usuario ya existe.</v>
+        <v>Mao Buff</v>
       </c>
       <c r="G34" t="str">
-        <v>ဒီအသုံးပြုသူအမည်ရှိပြီးသား။</v>
+        <v>Mao buff</v>
       </c>
       <c r="H34" t="str">
-        <v>ຊື່ຜູ້ໃຊ້ນີ້ມີຢູ່ແລ້ວ.</v>
+        <v>Mao Buff Buff</v>
       </c>
       <c r="I34" t="str">
-        <v>ឈ្មោះអ្នកប្រើនេះមានរួចហើយ។</v>
+        <v>Mao Buff</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>errUserNameTooLong</v>
+        <v>prod3Detail</v>
       </c>
       <c r="B35" t="str">
-        <v>User name is too long.</v>
+        <v>MAO Buff Fabric Arm Sleeves – Sun Protection Ideal for outdoor work and motorcycle riding. Suitable for both men and women.</v>
       </c>
       <c r="C35" t="str">
-        <v>ชื่อผู้ใช้มีความยาวเกินไป</v>
+        <v>ปลอกแขนผ้า Mao Buff - การป้องกันแสงแดดเหมาะสำหรับการทำงานกลางแจ้งและการขี่มอเตอร์ไซค์ เหมาะสำหรับทั้งชายและหญิง</v>
       </c>
       <c r="D35" t="str">
-        <v>用户名太长。</v>
+        <v>MAO BUFF织物手臂袖子 - 防晒功能是户外工作和摩托车骑行的理想选择。 适合男人和女人。</v>
       </c>
       <c r="E35" t="str">
-        <v>ユーザー名が長すぎます。</v>
+        <v>Mao Buff Fabric Arm Sleeves  - 屋外作業やオートバイライディングに最適な日焼け防止。 男性と女性の両方に適しています。</v>
       </c>
       <c r="F35" t="str">
-        <v>El nombre de usuario es demasiado largo.</v>
+        <v>Mangas de brazo de tela de buff de Mao: protección solar ideal para trabajos al aire libre y montar en motocicleta. Adecuado tanto para hombres como para mujeres.</v>
       </c>
       <c r="G35" t="str">
-        <v>အသုံးပြုသူအမည်သည်ရှည်လျားလွန်းသည်။</v>
+        <v>Mao Buff အထည်လက်များ - အပြင်ဘက်အလုပ်နှင့်မော်တော်ဆိုင်ကယ်စီးခြင်းအတွက်နေရောင်ကာကွယ်မှုစံနမူနာ။ အမျိုးသားများနှင့်အမျိုးသမီးများအတွက်သင့်တော်သည်။</v>
       </c>
       <c r="H35" t="str">
-        <v>ຊື່ຜູ້ໃຊ້ຍາວເກີນໄປ.</v>
+        <v>ເສອແຂນແຂນແຂນ Mao Buff Friend - ການປ້ອງກັນແສງແດດທີ່ເຫມາະສົມສໍາລັບການເຮັດວຽກນອກແລະຂີ່ລົດຈັກ. ເຫມາະສໍາລັບທັງຊາຍແລະຍິງ.</v>
       </c>
       <c r="I35" t="str">
-        <v>ឈ្មោះអ្នកប្រើវែងពេក។</v>
+        <v>អាវធំរបស់ម៉ៅប៊ូហ្វូ - ការការពារកម្តៅថ្ងៃល្អបំផុតសម្រាប់ការងារក្រៅនិងការជិះម៉ូតូ។ សាកសមសម្រាប់ទាំងបុរសនិងស្ត្រី។</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>errPasswordInvalid</v>
+        <v>prod4Name</v>
       </c>
       <c r="B36" t="str">
-        <v>Password must be at least 8 characters long and include at least one number and one uppercase letter.</v>
+        <v>ASICS Running Shoes</v>
       </c>
       <c r="C36" t="str">
-        <v>รหัสผ่านต้องเป็นภาษาอังกฤษและมีอย่างน้อย 8 ตัวอักษร และต้องมีตัวเลขอย่างน้อย 1 ตัว และตัวอักษรพิมพ์ใหญ่อย่างน้อย 1 ตัว</v>
+        <v>รองเท้าวิ่ง ASICS</v>
       </c>
       <c r="D36" t="str">
-        <v>密码必须至少长8个字符，并且至少包含一个数字和一个大写字母。</v>
+        <v>ASIC跑鞋</v>
       </c>
       <c r="E36" t="str">
-        <v>パスワードは少なくとも8文字の長さで、少なくとも1つの数字と1つの大文字が含まれている必要があります。</v>
+        <v>アシックスランニングシューズ</v>
       </c>
       <c r="F36" t="str">
-        <v>La contraseña debe tener al menos 8 caracteres e incluir al menos un número y una letra mayúscula.</v>
+        <v>ASICS Running Shoes</v>
       </c>
       <c r="G36" t="str">
-        <v>စကားဝှက်သည်အနည်းဆုံးစာလုံး 8 လုံးရှိပြီးအနည်းဆုံးနံပါတ်တစ်ခုနှင့်စာလုံးကြီးတစ်ခုပါ 0 င်ရမည်။</v>
+        <v>Asics ပြေးဖိနပ်</v>
       </c>
       <c r="H36" t="str">
-        <v>ລະຫັດຜ່ານຕ້ອງມີຢ່າງຫນ້ອຍ 8 ຕົວອັກສອນຍາວແລະປະກອບມີຢ່າງຫນ້ອຍຫນຶ່ງຕົວເລກແລະຕົວອັກສອນໃຫຍ່.</v>
+        <v>ເກີບແລ່ນ Asics</v>
       </c>
       <c r="I36" t="str">
-        <v>លេខសម្ងាត់ត្រូវតែមានយ៉ាងហោចណាស់ 8 តួអក្សរហើយបញ្ចូលយ៉ាងហោចណាស់មួយលេខនិងអក្សរធំមួយ។</v>
+        <v>Asics កំពុងរត់ស្បែកជើង</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>errConfirmPasswordNotMatch</v>
+        <v>prod4Detail</v>
       </c>
       <c r="B37" t="str">
-        <v>Confirm password is not matched.</v>
+        <v>ASICS 1011B983.100 DYNABLAST 5 MEN'S RUNNING SHOES Genuine men's running shoes in White/Wave Teal color.</v>
       </c>
       <c r="C37" t="str">
-        <v>รหัสผ่านไม่เหมือนกัน</v>
+        <v>ASICS 1011b983.100 Dynablast 5 รองเท้าวิ่งของผู้ชายรองเท้าวิ่งของผู้ชายในสีขาว/คลื่น</v>
       </c>
       <c r="D37" t="str">
-        <v>确认密码不匹配。</v>
+        <v>ASICS 1011B983.100 Dynablast 5男士跑步鞋是白色/波蓝绿色的真正男士跑步鞋。</v>
       </c>
       <c r="E37" t="str">
-        <v>パスワードが一致していないことを確認してください。</v>
+        <v>ASICS 1011B983.100 DYNABLAST 5メンズランニングシューズ白/波のティール色の本物のメンズランニングシューズ。</v>
       </c>
       <c r="F37" t="str">
-        <v>Confirmar que la contraseña no coincida.</v>
+        <v>ASICS 1011B983.100 Dynablast 5 zapatillas para correr para hombres.</v>
       </c>
       <c r="G37" t="str">
-        <v>အတည်ပြုနံပါတ်နှင့်မကိုက်ညီပါ။</v>
+        <v>asics 1011b983.100 Dynablast 5 အမျိုးသားများသည်အဖြူရောင်အမျိုးသားစီးနင်းဖိနပ်သည်အဖြူရောင် / လှိုင်းစိမ်းလန်းသောအရောင်များဖြင့်စစ်မှန်တဲ့အမျိုးသားစီးဖိနပ်စီးဖိနပ်ဖြစ်သည်။</v>
       </c>
       <c r="H37" t="str">
-        <v>ຢືນຢັນລະຫັດຜ່ານບໍ່ກົງກັນ.</v>
+        <v>Asics 1011b983.100 Dynablast 5 ຂອງຜູ້ຊາຍກໍາລັງແລ່ນຂອງຜູ້ຊາຍເກີບແລ່ນທີ່ແທ້ຈິງຂອງຜູ້ຊາຍໃນສີຂາວ / ຄື້ນສີ.</v>
       </c>
       <c r="I37" t="str">
-        <v>បញ្ជាក់ពាក្យសម្ងាត់មិនត្រូវគ្នាទេ។</v>
+        <v>Asics 1011b983.100 Dynableast ស្បែកជើងដែលរត់របស់បុរស 5 ស្បែកជើងដែលកំពុងរត់របស់បុរសពិតប្រាកដរបស់បុរសពិតប្រាកដនៅពណ៌ស / រលកពណ៌ត្នោត។</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>exitRegister</v>
+        <v>prod5Name</v>
       </c>
       <c r="B38" t="str">
-        <v>Exiting registration?</v>
+        <v>ASICS Cap</v>
       </c>
       <c r="C38" t="str">
-        <v>ออกจากการลงทะเบียน</v>
+        <v>หมวก ASICS</v>
       </c>
       <c r="D38" t="str">
-        <v>退出注册？</v>
+        <v>ASIC上限</v>
       </c>
       <c r="E38" t="str">
-        <v>登録を終了しますか？</v>
+        <v>アシックスキャップ</v>
       </c>
       <c r="F38" t="str">
-        <v>¿Salir de registro?</v>
+        <v>Tapa asics</v>
       </c>
       <c r="G38" t="str">
-        <v>မှတ်ပုံတင်ခြင်းမှတ်ပုံတင်ခြင်းလား</v>
+        <v>Asics Cap</v>
       </c>
       <c r="H38" t="str">
-        <v>ອອກຈາກການລົງທະບຽນບໍ?</v>
+        <v>Asics Cap</v>
       </c>
       <c r="I38" t="str">
-        <v>ការចុះឈ្មោះចេញ?</v>
+        <v>Asics Cap Cap</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>exitRegisterTxt</v>
+        <v>prod5Detail</v>
       </c>
       <c r="B39" t="str">
-        <v>Exiting registration will result in the loss of your entered information. However, you can register again anytime. Are you sure you want to exit?</v>
+        <v>ASICS 3013B124.700 RUNNING LIGHT WOVEN CAP – UNISEX Genuine running cap for men and women in Coral Reef color.</v>
       </c>
       <c r="C39" t="str">
-        <v>หากออกจากการลงทะเบียน ข้อมูลที่กรอกไว้จะสูญหาย อย่างไรก็ตาม คุณสามารถลงทะเบียนใหม่ได้ทุกเมื่อ คุณแน่ใจหรือไม่ว่าต้องการออก?</v>
+        <v>ASICS 3013B124.700 เปิดฝาทอไฟ - หมวกวิ่งของแท้สำหรับผู้ชายและผู้หญิงในสีแนวปะการัง</v>
       </c>
       <c r="D39" t="str">
-        <v>退出注册将导致您输入的信息丢失。 但是，您可以随时再次注册。 您确定要退出吗？</v>
+        <v>ASICS 3013B124.700跑步轻织帽 - 男女珊瑚礁颜色的男女式跑步帽。</v>
       </c>
       <c r="E39" t="str">
-        <v>登録を終了すると、入力された情報が失われます。 ただし、いつでも登録できます。 あなたは退出したいですか？</v>
+        <v>ASICS 3013B124.700ランニングライト織りキャップ - サンゴ礁の色の男性と女性のためのユニセックスの本物のランニングキャップ。</v>
       </c>
       <c r="F39" t="str">
-        <v>Salir del registro dará como resultado la pérdida de su información ingresada. Sin embargo, puede registrarse nuevamente en cualquier momento. ¿Estás seguro de que quieres salir?</v>
+        <v>ASICS 3013B124.700 CAP de luz tejida de luz - Capo de carrera genuino unisex para hombres y mujeres en color de arrecifes de coral.</v>
       </c>
       <c r="G39" t="str">
-        <v>မှတ်ပုံတင်ခြင်းမှတ်ပုံတင်ခြင်းသည်သင်၏ထည့်သွင်းထားသောသတင်းအချက်အလက်များဆုံးရှုံးမှုကိုဖြစ်ပေါ်စေလိမ့်မည်။ သို့သော်မည်သည့်အချိန်တွင်မဆိုထပ်မံမှတ်ပုံတင်နိုင်သည်။ မင်းထွက်ချင်တာသေချာလား</v>
+        <v>Asics 3013B124.700 အပြေး Light Window Cap To Window - Coral Ref အရောင်ရှိအမျိုးသားများနှင့်အမျိုးသမီးများအတွက် Unisex စစ်မှန်သောပြေးအဖွဲ့သို့။</v>
       </c>
       <c r="H39" t="str">
-        <v>ການອອກທະບຽນຈະສົ່ງຜົນໃຫ້ມີການສູນເສຍຂໍ້ມູນທີ່ທ່ານເຂົ້າມາ. ເຖິງຢ່າງໃດກໍ່ຕາມ, ທ່ານສາມາດລົງທະບຽນອີກເທື່ອຫນຶ່ງໄດ້ທຸກເວລາ. ທ່ານແນ່ໃຈບໍ່ວ່າທ່ານຕ້ອງການອອກ?</v>
+        <v>ASICS 3013B124.700 ແລ່ນ Capine Light Cap - Unisex Cap ທີ່ໃຊ້ໃນການແລ່ນສໍາລັບຜູ້ຊາຍແລະແມ່ຍິງໃນ Coral onef Color.</v>
       </c>
       <c r="I39" t="str">
-        <v>ការចាកចេញពីការចុះឈ្មោះនឹងបណ្តាលឱ្យបាត់បង់ព័ត៌មានដែលអ្នកបានបញ្ចូលរបស់អ្នក។ ទោះយ៉ាងណាអ្នកអាចចុះឈ្មោះម្តងទៀតគ្រប់ពេល។ តើអ្នកពិតជាចង់ចាកចេញមែនទេ?</v>
+        <v>Asics 3013b124.700 ការរត់ត្បាញធុនស្រាល - unisex ដែលកំពុងរត់មួកពិតប្រាកដសម្រាប់បុរសនិងស្ត្រីនៅក្នុងពណ៌ផ្កាថ្មថ្មប៉ប្រះទឹក។</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>exit</v>
+        <v>addToCart</v>
       </c>
       <c r="B40" t="str">
-        <v>Exit</v>
+        <v>Add to cart</v>
       </c>
       <c r="C40" t="str">
-        <v>ออก</v>
+        <v>เพิ่มลงในรถเข็น</v>
       </c>
       <c r="D40" t="str">
-        <v>出口</v>
+        <v>添加到购物车</v>
       </c>
       <c r="E40" t="str">
-        <v>出口</v>
+        <v>カートに追加</v>
       </c>
       <c r="F40" t="str">
-        <v>Salida</v>
+        <v>Añadir a la cesta</v>
       </c>
       <c r="G40" t="str">
-        <v>ထွက်ပေါက်</v>
+        <v>စျေးဝယ်ခြင်းထဲသို့ထည့်သည်</v>
       </c>
       <c r="H40" t="str">
-        <v>ອອກໄປ</v>
+        <v>ຕື່ມໃສ່ກະຕ່າ</v>
       </c>
       <c r="I40" t="str">
-        <v>ចេញ</v>
+        <v>បន្ថែមទៅរទេះ</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>placeName</v>
+        <v>price</v>
       </c>
       <c r="B41" t="str">
-        <v>Place Name</v>
+        <v>Price</v>
       </c>
       <c r="C41" t="str">
-        <v>ชื่อสถานที่</v>
+        <v>ราคา</v>
       </c>
       <c r="D41" t="str">
-        <v>Place Name</v>
+        <v>价格</v>
       </c>
       <c r="E41" t="str">
-        <v>Place Name</v>
+        <v>価格</v>
       </c>
       <c r="F41" t="str">
-        <v>Place Name</v>
+        <v>Precio</v>
       </c>
       <c r="G41" t="str">
-        <v>Place Name</v>
+        <v>စြေး</v>
       </c>
       <c r="H41" t="str">
-        <v>Place Name</v>
+        <v>ລາຄາ</v>
       </c>
       <c r="I41" t="str">
-        <v>Place Name</v>
+        <v>តមលៃ</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>enterPlaceNameOrCompanyName</v>
+        <v>phone</v>
       </c>
       <c r="B42" t="str">
-        <v>Enter place name or company name</v>
+        <v>Phone No.</v>
       </c>
       <c r="C42" t="str">
-        <v>ชื่อสถานที่ หรือ ชื่อบริษัท</v>
+        <v>หมายเลขโทรศัพท์</v>
       </c>
       <c r="D42" t="str">
-        <v>Enter place name or company name</v>
+        <v>电话号码</v>
       </c>
       <c r="E42" t="str">
-        <v>Enter place name or company name</v>
+        <v>電話番号</v>
       </c>
       <c r="F42" t="str">
-        <v>Enter place name or company name</v>
+        <v>Número de teléfono</v>
       </c>
       <c r="G42" t="str">
-        <v>Enter place name or company name</v>
+        <v>ဖုန်းနံပါတ်</v>
       </c>
       <c r="H42" t="str">
-        <v>Enter place name or company name</v>
+        <v>ໂທລະສັບ.</v>
       </c>
       <c r="I42" t="str">
-        <v>Enter place name or company name</v>
+        <v>លេខទូរស័ព្ទលេខទូរស័ព្ទ</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>typeHotel</v>
+        <v>totalProduct</v>
       </c>
       <c r="B43" t="str">
-        <v>Hotel</v>
+        <v>Total Product Amount :</v>
       </c>
       <c r="C43" t="str">
-        <v>โรงแรม</v>
+        <v>จำนวนผลิตภัณฑ์ทั้งหมด:</v>
       </c>
       <c r="D43" t="str">
-        <v>酒店</v>
+        <v>总产品金额：</v>
       </c>
       <c r="E43" t="str">
-        <v>ホテル</v>
+        <v>総製品量：</v>
       </c>
       <c r="F43" t="str">
-        <v>Hotel</v>
+        <v>Cantidad total del producto:</v>
       </c>
       <c r="G43" t="str">
-        <v>ဟော်တယ်</v>
+        <v>စုစုပေါင်းထုတ်ကုန်ပမာဏ -</v>
       </c>
       <c r="H43" t="str">
-        <v>ໂຮງແຮມ</v>
+        <v>ຈໍານວນສິນຄ້າທັງຫມົດ:</v>
       </c>
       <c r="I43" t="str">
-        <v>សន្ឋាការ</v>
+        <v>ចំនួនផលិតផលសរុប:</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>typeHostel</v>
+        <v>added</v>
       </c>
       <c r="B44" t="str">
-        <v>Hostel</v>
+        <v>Add</v>
       </c>
       <c r="C44" t="str">
-        <v>หอพัก</v>
+        <v>เพิ่ม</v>
       </c>
       <c r="D44" t="str">
-        <v>旅馆</v>
+        <v>添加</v>
       </c>
       <c r="E44" t="str">
-        <v>ホステル</v>
+        <v>追加</v>
       </c>
       <c r="F44" t="str">
-        <v>Albergue</v>
+        <v>Agregar</v>
       </c>
       <c r="G44" t="str">
-        <v>ဘော်ဒါဆောင်</v>
+        <v>ပေါင်း</v>
       </c>
       <c r="H44" t="str">
-        <v>ຫໍພັກ</v>
+        <v>ເພີ່ມ</v>
       </c>
       <c r="I44" t="str">
-        <v>ហោហាប់លេងហេហេល</v>
+        <v>បុក / ករ</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>typeMotel</v>
+        <v>deliveryCost</v>
       </c>
       <c r="B45" t="str">
-        <v>Motel</v>
+        <v>Delivery Cost</v>
       </c>
       <c r="C45" t="str">
-        <v>โมเทล</v>
+        <v>ค่าจัดส่ง</v>
       </c>
       <c r="D45" t="str">
-        <v>汽车旅馆</v>
+        <v>交货费用</v>
       </c>
       <c r="E45" t="str">
-        <v>モーテル</v>
+        <v>配送コスト</v>
       </c>
       <c r="F45" t="str">
-        <v>Motel</v>
+        <v>Costo de entrega</v>
       </c>
       <c r="G45" t="str">
-        <v>မိုတယ်</v>
+        <v>ပေးပို့ကုန်ကျစရိတ်</v>
       </c>
       <c r="H45" t="str">
-        <v>ເຮືອນພັກໂມເທວ</v>
+        <v>ຄ່າຂົນ</v>
       </c>
       <c r="I45" t="str">
-        <v>ម៉ុតតេ</v>
+        <v>ថ្លៃដឹកជញ្ជូន</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>typeResort</v>
+        <v>totalAmt</v>
       </c>
       <c r="B46" t="str">
-        <v>Resort</v>
+        <v>Total Amount</v>
       </c>
       <c r="C46" t="str">
-        <v>รีสอร์ท</v>
+        <v>จำนวนเงินทั้งหมด</v>
       </c>
       <c r="D46" t="str">
-        <v>采取</v>
+        <v>总金额</v>
       </c>
       <c r="E46" t="str">
-        <v>リゾート</v>
+        <v>合計金額</v>
       </c>
       <c r="F46" t="str">
-        <v>Complejo</v>
+        <v>Cantidad total</v>
       </c>
       <c r="G46" t="str">
-        <v>သွားရောက်ရာအရပ်</v>
+        <v>စုစုပေါင်းတန်ဘိုး</v>
       </c>
       <c r="H46" t="str">
-        <v>ບ່ອນຕາກອາກາດ</v>
+        <v>ຈໍານວນເງິນທັງຫມົດ</v>
       </c>
       <c r="I46" t="str">
-        <v>ការបឹងផ្អេក</v>
+        <v>ចំនួនសរុប</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>typeDormitory</v>
+        <v>errName4to50</v>
       </c>
       <c r="B47" t="str">
-        <v>Dormitory</v>
+        <v>Name can only has 4 to 50 charactors.</v>
       </c>
       <c r="C47" t="str">
-        <v>หอพัก</v>
+        <v>ชื่อสามารถมีตัวละคร 4 ถึง 50 ตัวเท่านั้น</v>
       </c>
       <c r="D47" t="str">
-        <v>宿舍</v>
+        <v>名称只能有4至50个炭镜。</v>
       </c>
       <c r="E47" t="str">
-        <v>寮</v>
+        <v>名前には4〜50個のキャラクターしかありません。</v>
       </c>
       <c r="F47" t="str">
-        <v>Dormitorio</v>
+        <v>El nombre solo puede tener de 4 a 50 charactores.</v>
       </c>
       <c r="G47" t="str">
-        <v>အိပ်ခန်း</v>
+        <v>နာမည်ကသာ 4 မှ 50 အထိရှိတယ်။</v>
       </c>
       <c r="H47" t="str">
-        <v>ຫໍພັກ</v>
+        <v>ຊື່ສາມາດມີພຽງແຕ່ 4 ຫາ 50 ຕົວຂອງຕົວເມືອງ.</v>
       </c>
       <c r="I47" t="str">
-        <v>សយនដ្ឋាន</v>
+        <v>ឈ្មោះអាចមានតែកាំជ្រួច 4 ទៅ 50 ប៉ុណ្ណោះ។</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>typeServicedApartment</v>
+        <v>errInvalidEmail</v>
       </c>
       <c r="B48" t="str">
-        <v>Serviced Apartment</v>
+        <v>Please enter a valid email address.</v>
       </c>
       <c r="C48" t="str">
-        <v>servicepartment</v>
+        <v>โปรดป้อนที่อยู่อีเมลที่ถูกต้อง</v>
       </c>
       <c r="D48" t="str">
-        <v>维修apartment</v>
+        <v>请输入有效的电子邮件地址。</v>
       </c>
       <c r="E48" t="str">
-        <v>ServicedApartment</v>
+        <v>有効なメールアドレスを入力してください。</v>
       </c>
       <c r="F48" t="str">
-        <v>APARTAMENTO DE SERVICIO</v>
+        <v>Por favor, introduce una dirección de correo electrónico válida.</v>
       </c>
       <c r="G48" t="str">
-        <v>servicedapartmartment</v>
+        <v>ကျေးဇူးပြု။ မှန်ကန်သောအီးမေးလ်လိပ်စာတစ်ခုဖြည့်ပါ။</v>
       </c>
       <c r="H48" t="str">
-        <v>ບໍລິການ</v>
+        <v>ກະລຸນາໃສ່ທີ່ຢູ່ອີເມວທີ່ຖືກຕ້ອງ.</v>
       </c>
       <c r="I48" t="str">
-        <v>សេវាកម្ម</v>
+        <v>សូមបញ្ចូលអាសយដ្ឋានអ៊ីមែលត្រឹមត្រូវ។</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>typeHomestay</v>
+        <v>errInvalidPhone</v>
       </c>
       <c r="B49" t="str">
-        <v>Homestay</v>
+        <v>Please enter a valid phone number.</v>
       </c>
       <c r="C49" t="str">
-        <v>บ้านพักตากอากาศ</v>
+        <v>กรุณากรอกหมายเลขโทรศัพท์ที่ถูกต้อง</v>
       </c>
       <c r="D49" t="str">
-        <v>寄宿家庭</v>
+        <v>请输入有效的电话号码。</v>
       </c>
       <c r="E49" t="str">
-        <v>ホームステイ</v>
+        <v>有効な電話番号を入力してください。</v>
       </c>
       <c r="F49" t="str">
-        <v>Casa de familia</v>
+        <v>Ingrese un número de teléfono válido.</v>
       </c>
       <c r="G49" t="str">
-        <v>ခေတ္တတည်းခိုစရာ</v>
+        <v>ကျေးဇူးပြု. မှန်ကန်သောဖုန်းနံပါတ်ကိုထည့်ပါ။</v>
       </c>
       <c r="H49" t="str">
-        <v>ການເຂົ້າບ້ານ</v>
+        <v>ກະລຸນາໃສ່ເບີໂທລະສັບທີ່ຖືກຕ້ອງ.</v>
       </c>
       <c r="I49" t="str">
-        <v>ហូមវូតី</v>
+        <v>សូមបញ្ចូលលេខទូរស័ព្ទដែលមានសុពលភាព។</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>typeGuesthouse</v>
+        <v>errAddress20to400</v>
       </c>
       <c r="B50" t="str">
-        <v>Guesthouse</v>
+        <v>Address must be between 20 and 400 characters</v>
       </c>
       <c r="C50" t="str">
-        <v>เกสต์เฮาส์</v>
+        <v>ที่อยู่จะต้องอยู่ระหว่าง 20 ถึง 400 อักขระ</v>
       </c>
       <c r="D50" t="str">
-        <v>招待所</v>
+        <v>地址必须在20到400个字符之间</v>
       </c>
       <c r="E50" t="str">
-        <v>ゲストハウス</v>
+        <v>アドレスは20〜400文字でなければなりません</v>
       </c>
       <c r="F50" t="str">
-        <v>Casa de invitados</v>
+        <v>La dirección debe estar entre 20 y 400 caracteres</v>
       </c>
       <c r="G50" t="str">
-        <v>တည်းခိုခန်း</v>
+        <v>လိပ်စာသည်စာလုံးရေ 20 နှင့် 400 ကြားတွင်ရှိရမည်</v>
       </c>
       <c r="H50" t="str">
-        <v>ເຮືອນພັກ</v>
+        <v>ທີ່ຢູ່ຕ້ອງມີລະຫວ່າງ 20 ຫາ 400 ຕົວອັກສອນ</v>
       </c>
       <c r="I50" t="str">
-        <v>ផ្ទហសមនាក់</v>
+        <v>អាស័យដ្ឋានត្រូវតែមានចន្លោះពី 20 ទៅ 400 តួអក្សរ</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>typeVilla</v>
+        <v>remark</v>
       </c>
       <c r="B51" t="str">
-        <v>Villa</v>
+        <v>Remark</v>
       </c>
       <c r="C51" t="str">
-        <v>วิลล่า</v>
+        <v>คำพูด</v>
       </c>
       <c r="D51" t="str">
-        <v>别墅</v>
+        <v>评论</v>
       </c>
       <c r="E51" t="str">
-        <v>ヴィラ</v>
+        <v>述べる</v>
       </c>
       <c r="F51" t="str">
-        <v>Villa</v>
+        <v>Observación</v>
       </c>
       <c r="G51" t="str">
-        <v>ဗီလာ</v>
+        <v>ပေြာဆို</v>
       </c>
       <c r="H51" t="str">
-        <v>ກວນວິນ</v>
+        <v>ຂໍ້ສັງເກດ</v>
       </c>
       <c r="I51" t="str">
-        <v>ចានវីវី</v>
+        <v>ធេវីតាមបេបផេសង</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>typeTentCamping</v>
+        <v>remarkPH</v>
       </c>
       <c r="B52" t="str">
-        <v>TentCamping</v>
+        <v>Message to the seller</v>
       </c>
       <c r="C52" t="str">
-        <v>การเดินเตาะแตะ</v>
+        <v>ข้อความถึงผู้ขาย</v>
       </c>
       <c r="D52" t="str">
-        <v>tentcamping</v>
+        <v>给卖方的消息</v>
       </c>
       <c r="E52" t="str">
-        <v>テントキャンピング</v>
+        <v>売り手へのメッセージ</v>
       </c>
       <c r="F52" t="str">
-        <v>Campaña de campaña</v>
+        <v>Mensaje a la vendedora</v>
       </c>
       <c r="G52" t="str">
-        <v>ခရီး</v>
+        <v>ရောင်းသူထံစာ</v>
       </c>
       <c r="H52" t="str">
-        <v>ທີ່ເຄັ່ງຄັດສໍາລັບ Tentcamping</v>
+        <v>ຂໍ້ຄວາມເຖິງຜູ້ຂາຍ</v>
       </c>
       <c r="I52" t="str">
-        <v>TownCampated</v>
+        <v>សារទៅអ្នកលក់</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>typeCabin</v>
+        <v>error</v>
       </c>
       <c r="B53" t="str">
-        <v>Cabin</v>
+        <v>Error</v>
       </c>
       <c r="C53" t="str">
-        <v>ห้องโดยสาร</v>
+        <v>ข้อผิดพลาด</v>
       </c>
       <c r="D53" t="str">
-        <v>舱</v>
+        <v>错误</v>
       </c>
       <c r="E53" t="str">
-        <v>キャビン</v>
+        <v>エラー</v>
       </c>
       <c r="F53" t="str">
-        <v>Cabina</v>
+        <v>Error</v>
       </c>
       <c r="G53" t="str">
-        <v>သငေ်္ဘာခန်း</v>
+        <v>အမှား</v>
       </c>
       <c r="H53" t="str">
-        <v>ກະທ່ອມ</v>
+        <v>ຜິດ</v>
       </c>
       <c r="I53" t="str">
-        <v>កាប៊ីន</v>
+        <v>កមហុស</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>typeRyokan</v>
+        <v>errTest</v>
       </c>
       <c r="B54" t="str">
-        <v>Ryokan</v>
+        <v>Test Error</v>
       </c>
       <c r="C54" t="str">
-        <v>Ryokan</v>
+        <v>ข้อผิดพลาดทดสอบ</v>
       </c>
       <c r="D54" t="str">
-        <v>Ryokan</v>
+        <v>测试错误</v>
       </c>
       <c r="E54" t="str">
-        <v>Ryokan</v>
+        <v>テストエラー</v>
       </c>
       <c r="F54" t="str">
-        <v>Ryokan</v>
+        <v>Error de prueba</v>
       </c>
       <c r="G54" t="str">
-        <v>Ryokan</v>
+        <v>စမ်းသပ်မှုအမှား</v>
       </c>
       <c r="H54" t="str">
-        <v>Ryokan</v>
+        <v>ຄວາມຜິດພາດໃນການທົດສອບ</v>
       </c>
       <c r="I54" t="str">
-        <v>ryokan</v>
+        <v>កំហុសក្នុងការសាកល្បង</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>typeTreehouse</v>
+        <v>errMissing</v>
       </c>
       <c r="B55" t="str">
-        <v>Treehouse</v>
+        <v>Some information is missing</v>
       </c>
       <c r="C55" t="str">
-        <v>บ้านต้นไม้</v>
+        <v>ข้อมูลบางอย่างหายไป</v>
       </c>
       <c r="D55" t="str">
-        <v>树屋</v>
+        <v>缺少一些信息</v>
       </c>
       <c r="E55" t="str">
-        <v>ツリーハウス</v>
+        <v>いくつかの情報がありません</v>
       </c>
       <c r="F55" t="str">
-        <v>Casa del árbol</v>
+        <v>Falta algo de información</v>
       </c>
       <c r="G55" t="str">
-        <v>ကေြာက်</v>
+        <v>သတင်းအချက်အလက်အချို့ပျောက်နေသည်</v>
       </c>
       <c r="H55" t="str">
-        <v>ຕູບເຮືອນ</v>
+        <v>ບາງຂໍ້ມູນແມ່ນຫາຍໄປ</v>
       </c>
       <c r="I55" t="str">
-        <v>ហង្គៅរឹកនាំ</v>
+        <v>ព័ត៌មានខ្លះបាត់</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>typeHouseboat</v>
+        <v>errInputMissing</v>
       </c>
       <c r="B56" t="str">
-        <v>Houseboat</v>
+        <v>Some information is missing (input)</v>
       </c>
       <c r="C56" t="str">
-        <v>บ้านเรือ</v>
+        <v>ข้อมูลบางอย่างหายไป (อินพุต)</v>
       </c>
       <c r="D56" t="str">
-        <v>船屋</v>
+        <v>缺少一些信息（输入）</v>
       </c>
       <c r="E56" t="str">
-        <v>ハウスボート</v>
+        <v>いくつかの情報がありません（入力）</v>
       </c>
       <c r="F56" t="str">
-        <v>Casa flotante</v>
+        <v>Falta cierta información (entrada)</v>
       </c>
       <c r="G56" t="str">
-        <v>လုံးအိမ်လှပ်</v>
+        <v>သတင်းအချက်အလက်အချို့သည်ပျောက်ဆုံးနေသည် (input)</v>
       </c>
       <c r="H56" t="str">
-        <v>ເຮືອເຮືອນ້ອຍອາການ</v>
+        <v>ບາງຂໍ້ມູນແມ່ນຂາດຫາຍໄປ (ການປ້ອນຂໍ້ມູນ)</v>
       </c>
       <c r="I56" t="str">
-        <v>បុកកេរម្ក</v>
+        <v>ព័ត៌មានខ្លះបាត់ (ការបញ្ចូល)</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>typeFarmStay</v>
+        <v>errCartMissing</v>
       </c>
       <c r="B57" t="str">
-        <v>FarmStay</v>
+        <v>Some information is missing (cart)</v>
       </c>
       <c r="C57" t="str">
-        <v>ฟาร์ม</v>
+        <v>ข้อมูลบางอย่างหายไป (รถเข็น)</v>
       </c>
       <c r="D57" t="str">
-        <v>农场</v>
+        <v>缺少一些信息（购物车）</v>
       </c>
       <c r="E57" t="str">
-        <v>ファームステイ</v>
+        <v>いくつかの情報がありません（カート）</v>
       </c>
       <c r="F57" t="str">
-        <v>Establo</v>
+        <v>Falta cierta información (carrito)</v>
       </c>
       <c r="G57" t="str">
-        <v>လယ်ယာအကျပ်</v>
+        <v>သတင်းအချက်အလက်အချို့သည်ပျောက်နေသည် (လှည်း)</v>
       </c>
       <c r="H57" t="str">
-        <v>ກະສິກໍາ</v>
+        <v>ຂໍ້ມູນບາງຢ່າງແມ່ນຂາດ (ລົດເຂັນ)</v>
       </c>
       <c r="I57" t="str">
-        <v>ស្ទាក់ង</v>
+        <v>ព័ត៌មានខ្លះបាត់ (រទេះ)</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>typeCapsuleHotel</v>
+        <v>errInvalidProdectOptId</v>
       </c>
       <c r="B58" t="str">
-        <v>CapsuleHotel</v>
+        <v>errInvalidProdectOptId</v>
       </c>
       <c r="C58" t="str">
-        <v>แคปซูลฮอทเทล</v>
+        <v>errinvalidprodectoptid</v>
       </c>
       <c r="D58" t="str">
-        <v>Capsulehotel</v>
+        <v>errinvalidprodectoptid</v>
       </c>
       <c r="E58" t="str">
-        <v>カプセレホテル</v>
+        <v>errinvalidprodectoptid</v>
       </c>
       <c r="F58" t="str">
-        <v>Cápsula</v>
+        <v>ErrinValidProdectOpTid</v>
       </c>
       <c r="G58" t="str">
-        <v>Capsulehotel</v>
+        <v>errinvalidprotectoptid</v>
       </c>
       <c r="H58" t="str">
-        <v>ແຄບຊູນ</v>
+        <v>allrinvalprodepprodeptidtid</v>
       </c>
       <c r="I58" t="str">
-        <v>Capsulhotel</v>
+        <v>Errinvalidprodecctos</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>typeTimeshare</v>
+        <v>errTotalAmtMismatch</v>
       </c>
       <c r="B59" t="str">
-        <v>Timeshare</v>
+        <v>Total Amount Mismatch.</v>
       </c>
       <c r="C59" t="str">
-        <v>การดูแลเวลา</v>
+        <v>จำนวนเงินทั้งหมดไม่ตรงกัน</v>
       </c>
       <c r="D59" t="str">
-        <v>分时度假</v>
+        <v>总数量不匹配。</v>
       </c>
       <c r="E59" t="str">
-        <v>タイムシェア</v>
+        <v>総量の不一致。</v>
       </c>
       <c r="F59" t="str">
-        <v>Multipropiedad</v>
+        <v>Cantidad total no coincidiendo.</v>
       </c>
       <c r="G59" t="str">
-        <v>Timituthare</v>
+        <v>စုစုပေါင်းငွေပမာဏမတိုက်ဆိုင်။</v>
       </c>
       <c r="H59" t="str">
-        <v>ເວລາຕ່ໍ</v>
+        <v>ຈໍານວນທັງຫມົດທີ່ບໍ່ສອດຄ່ອງກັນ.</v>
       </c>
       <c r="I59" t="str">
-        <v>មធ្យេនន៍</v>
+        <v>ចំនួនសរុបមិនត្រូវគ្នា។</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>typeOther</v>
+        <v>errGrandTotalMismatch</v>
       </c>
       <c r="B60" t="str">
-        <v>Other</v>
+        <v>Grand Total Mismatch</v>
       </c>
       <c r="C60" t="str">
-        <v>อื่น</v>
+        <v>ความไม่ตรงกันทั้งหมด</v>
       </c>
       <c r="D60" t="str">
-        <v>其他</v>
+        <v>总体不匹配</v>
       </c>
       <c r="E60" t="str">
-        <v>他の</v>
+        <v>総合的な不一致</v>
       </c>
       <c r="F60" t="str">
-        <v>Otra</v>
+        <v>Gran desajuste total</v>
       </c>
       <c r="G60" t="str">
-        <v>အခြား</v>
+        <v>Grand Total Mismatch</v>
       </c>
       <c r="H60" t="str">
-        <v>ອື່ນ</v>
+        <v>Grand Total Final Mismatch</v>
       </c>
       <c r="I60" t="str">
-        <v>ផេសងត្យេត</v>
+        <v>Grand Int សរុបមិនត្រូវគ្នា</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>useQRPay</v>
+      </c>
+      <c r="B61" t="str">
+        <v>Switch to QR pay</v>
+      </c>
+      <c r="C61" t="str">
+        <v>เปลี่ยนเป็น QR Pay</v>
+      </c>
+      <c r="D61" t="str">
+        <v>切换到QR付费</v>
+      </c>
+      <c r="E61" t="str">
+        <v>QR Payに切り替えます</v>
+      </c>
+      <c r="F61" t="str">
+        <v>Cambiar a QR Pay</v>
+      </c>
+      <c r="G61" t="str">
+        <v>QR Pay သို့ပြောင်းပါ</v>
+      </c>
+      <c r="H61" t="str">
+        <v>ປ່ຽນເປັນ QR Pay</v>
+      </c>
+      <c r="I61" t="str">
+        <v>ប្តូរទៅ QR ប្រាក់ខែ</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>useManualPay</v>
+      </c>
+      <c r="B62" t="str">
+        <v>Switch to manual pay</v>
+      </c>
+      <c r="C62" t="str">
+        <v>เปลี่ยนเป็นการจ่ายด้วยตนเอง</v>
+      </c>
+      <c r="D62" t="str">
+        <v>切换到手动付款</v>
+      </c>
+      <c r="E62" t="str">
+        <v>手動支払いに切り替えます</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Cambiar al pago manual</v>
+      </c>
+      <c r="G62" t="str">
+        <v>လက်စွဲစာအုပ်မှ switch</v>
+      </c>
+      <c r="H62" t="str">
+        <v>ປ່ຽນເປັນເງິນເດືອນຄູ່ມື</v>
+      </c>
+      <c r="I62" t="str">
+        <v>ប្តូរទៅប្រាក់ខែដោយដៃ</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>clickToUpload</v>
+      </c>
+      <c r="B63" t="str">
+        <v>Click to upload</v>
+      </c>
+      <c r="C63" t="str">
+        <v>คลิกเพื่ออัปโหลด</v>
+      </c>
+      <c r="D63" t="str">
+        <v>单击上传</v>
+      </c>
+      <c r="E63" t="str">
+        <v>クリックしてアップロードします</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Haga clic para cargar</v>
+      </c>
+      <c r="G63" t="str">
+        <v>တင်ရန်ကိုနှိပ်ပါ</v>
+      </c>
+      <c r="H63" t="str">
+        <v>ກົດເພື່ອອັບໂຫລດ</v>
+      </c>
+      <c r="I63" t="str">
+        <v>ចុចដើម្បីផ្ទុកឡើង</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
+        <v>totalForPay</v>
+      </c>
+      <c r="B64" t="str">
+        <v>Total Pay</v>
+      </c>
+      <c r="C64" t="str">
+        <v>จ่ายทั้งหมด</v>
+      </c>
+      <c r="D64" t="str">
+        <v>总薪水</v>
+      </c>
+      <c r="E64" t="str">
+        <v>総賃金</v>
+      </c>
+      <c r="F64" t="str">
+        <v>Pago total</v>
+      </c>
+      <c r="G64" t="str">
+        <v>စုစုပေါင်းလစာ</v>
+      </c>
+      <c r="H64" t="str">
+        <v>ເງິນເດືອນທັງຫມົດ</v>
+      </c>
+      <c r="I64" t="str">
+        <v>ប្រាក់ឈ្នួលសរុប</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="str">
+        <v>plsAddNote</v>
+      </c>
+      <c r="B65" t="str">
+        <v>Note (Add to note when pay)</v>
+      </c>
+      <c r="C65" t="str">
+        <v>หมายเหตุ (เพิ่มเพื่อทราบเมื่อจ่าย)</v>
+      </c>
+      <c r="D65" t="str">
+        <v>注意（添加到何时付款）</v>
+      </c>
+      <c r="E65" t="str">
+        <v>メモ（支払い時に注意する）</v>
+      </c>
+      <c r="F65" t="str">
+        <v>Nota (Agregue a que tenga en cuenta cuándo se paga)</v>
+      </c>
+      <c r="G65" t="str">
+        <v>မှတ်စု (ငွေပေးချေသည့်အခါမှတ်သားရန်ထည့်ပါ)</v>
+      </c>
+      <c r="H65" t="str">
+        <v>ຫມາຍເຫດ (ເພີ່ມເຂົ້າໃນເວລາທີ່ຈ່າຍ)</v>
+      </c>
+      <c r="I65" t="str">
+        <v>ចំណាំ (បន្ថែមទៅចំណាំនៅពេលបង់ប្រាក់)</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="str">
+        <v>removePhoto</v>
+      </c>
+      <c r="B66" t="str">
+        <v>Remove slip</v>
+      </c>
+      <c r="C66" t="str">
+        <v>ลบสลิป</v>
+      </c>
+      <c r="D66" t="str">
+        <v>拆下滑动</v>
+      </c>
+      <c r="E66" t="str">
+        <v>スリップを取り外します</v>
+      </c>
+      <c r="F66" t="str">
+        <v>Retirar deslizamiento</v>
+      </c>
+      <c r="G66" t="str">
+        <v>ရေငုပ်သင်္ဘောဖယ်ရှားပါ</v>
+      </c>
+      <c r="H66" t="str">
+        <v>ເອົາອອກ</v>
+      </c>
+      <c r="I66" t="str">
+        <v>យកចេញ</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="str">
+        <v>errInvalidOrderId</v>
+      </c>
+      <c r="B67" t="str">
+        <v>Invalid Order Id</v>
+      </c>
+      <c r="C67" t="str">
+        <v>รหัสคำสั่งซื้อที่ไม่ถูกต้อง</v>
+      </c>
+      <c r="D67" t="str">
+        <v>无效订单ID</v>
+      </c>
+      <c r="E67" t="str">
+        <v>無効な注文ID</v>
+      </c>
+      <c r="F67" t="str">
+        <v>Id de orden inválida</v>
+      </c>
+      <c r="G67" t="str">
+        <v>မမှန်ကန်သောအမိန့် ID</v>
+      </c>
+      <c r="H67" t="str">
+        <v>ບັດປະຈໍາຕົວທີ່ບໍ່ຖືກຕ້ອງ</v>
+      </c>
+      <c r="I67" t="str">
+        <v>លេខសម្គាល់លំដាប់មិនត្រឹមត្រូវ</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="str">
+        <v>errNoFileUploaded</v>
+      </c>
+      <c r="B68" t="str">
+        <v>No file uploaded</v>
+      </c>
+      <c r="C68" t="str">
+        <v>ไม่มีการอัปโหลดไฟล์</v>
+      </c>
+      <c r="D68" t="str">
+        <v>没有上传的文件</v>
+      </c>
+      <c r="E68" t="str">
+        <v>アップロードされたファイルはありません</v>
+      </c>
+      <c r="F68" t="str">
+        <v>No hay archivo cargado</v>
+      </c>
+      <c r="G68" t="str">
+        <v>ဖိုင်တင်ခြင်းမရှိပါ</v>
+      </c>
+      <c r="H68" t="str">
+        <v>ບໍ່ມີເອກະສານທີ່ອັບໂຫລດແລ້ວ</v>
+      </c>
+      <c r="I68" t="str">
+        <v>មិនមានឯកសារផ្ទុកឡើងទេ</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="str">
+        <v>yourOrderHasRecieved</v>
+      </c>
+      <c r="B69" t="str">
+        <v>Your order has received!</v>
+      </c>
+      <c r="C69" t="str">
+        <v>คำสั่งซื้อของคุณได้รับ!</v>
+      </c>
+      <c r="D69" t="str">
+        <v>您的订单已收到！</v>
+      </c>
+      <c r="E69" t="str">
+        <v>あなたの注文は受け取りました！</v>
+      </c>
+      <c r="F69" t="str">
+        <v>¡Su pedido ha recibido!</v>
+      </c>
+      <c r="G69" t="str">
+        <v>သင်၏အမှာစာကိုလက်ခံရရှိခဲ့သည်။</v>
+      </c>
+      <c r="H69" t="str">
+        <v>ຄໍາສັ່ງຂອງທ່ານໄດ້ຮັບແລ້ວ!</v>
+      </c>
+      <c r="I69" t="str">
+        <v>ការបញ្ជាទិញរបស់អ្នកបានទទួល!</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="str">
+        <v>weWillConfirmTxt</v>
+      </c>
+      <c r="B70" t="str">
+        <v>...we will confirm your order within 24 hours...</v>
+      </c>
+      <c r="C70" t="str">
+        <v>... เราจะยืนยันคำสั่งซื้อของคุณภายใน 24 ชั่วโมง ...</v>
+      </c>
+      <c r="D70" t="str">
+        <v>...我们将在24小时内确认您的订单...</v>
+      </c>
+      <c r="E70" t="str">
+        <v>... 24時間以内にご注文を確認します...</v>
+      </c>
+      <c r="F70" t="str">
+        <v>... Confirmaremos su pedido dentro de las 24 horas ...</v>
+      </c>
+      <c r="G70" t="str">
+        <v>... 24 နာရီအတွင်းသင်၏အမှာစာကိုအတည်ပြုပါမည်။</v>
+      </c>
+      <c r="H70" t="str">
+        <v>... ພວກເຮົາຈະຢືນຢັນການສັ່ງຊື້ຂອງທ່ານພາຍໃນ 24 ຊົ່ວໂມງ ...</v>
+      </c>
+      <c r="I70" t="str">
+        <v>... យើងនឹងបញ្ជាក់ការបញ្ជាទិញរបស់អ្នកក្នុងរយៈពេល 24 ម៉ោង ...</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="str">
+        <v>youCanCheckOrderTxt</v>
+      </c>
+      <c r="B71" t="str">
+        <v>You can check your order status by click "Check Order Status" on the top of page.</v>
+      </c>
+      <c r="C71" t="str">
+        <v>คุณสามารถตรวจสอบสถานะการสั่งซื้อของคุณได้โดยคลิก "ตรวจสอบสถานะคำสั่งซื้อ" ที่ด้านบนของหน้า</v>
+      </c>
+      <c r="D71" t="str">
+        <v>您可以通过单击页面顶部的“检查订单状态”来检查您的订单状态。</v>
+      </c>
+      <c r="E71" t="str">
+        <v>ページ上部の「注文ステータスを確認」をクリックして、注文ステータスを確認できます。</v>
+      </c>
+      <c r="F71" t="str">
+        <v>Puede verificar el estado de su pedido haciendo clic en "Verifique el estado del pedido" en la parte superior de la página.</v>
+      </c>
+      <c r="G71" t="str">
+        <v>စာမျက်နှာ၏ထိပ်ရှိ "Check Order Status status" ကိုနှိပ်ပါ။</v>
+      </c>
+      <c r="H71" t="str">
+        <v>ທ່ານສາມາດກວດສອບສະຖານະການສັ່ງຊື້ຂອງທ່ານໂດຍກົດປຸ່ມ "ກວດສອບສະຖານະການສັ່ງຊື້" ຢູ່ເທິງສຸດຂອງຫນ້າ.</v>
+      </c>
+      <c r="I71" t="str">
+        <v>អ្នកអាចពិនិត្យមើលស្ថានភាពបញ្ជាទិញរបស់អ្នកដោយចុច "ពិនិត្យមើលស្ថានភាពបញ្ជាទិញ" នៅផ្នែកខាងលើនៃទំព័រ។</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="str">
+        <v>reorder</v>
+      </c>
+      <c r="B72" t="str">
+        <v>Create new order</v>
+      </c>
+      <c r="C72" t="str">
+        <v>สร้างคำสั่งซื้อใหม่</v>
+      </c>
+      <c r="D72" t="str">
+        <v>创建新订单</v>
+      </c>
+      <c r="E72" t="str">
+        <v>新しい注文を作成します</v>
+      </c>
+      <c r="F72" t="str">
+        <v>Crear un nuevo pedido</v>
+      </c>
+      <c r="G72" t="str">
+        <v>အမိန့်အသစ်ဖန်တီးပါ</v>
+      </c>
+      <c r="H72" t="str">
+        <v>ສ້າງລໍາດັບໃຫມ່</v>
+      </c>
+      <c r="I72" t="str">
+        <v>បង្កើតការបញ្ជាទិញថ្មី</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="str">
+        <v>youCanCheckOrderTxt2</v>
+      </c>
+      <c r="B73" t="str">
+        <v>by input your order no.</v>
+      </c>
+      <c r="C73" t="str">
+        <v>โดยป้อนคำสั่งซื้อของคุณ</v>
+      </c>
+      <c r="D73" t="str">
+        <v>通过输入您的订单号。</v>
+      </c>
+      <c r="E73" t="str">
+        <v>ご注文番号を入力してください。</v>
+      </c>
+      <c r="F73" t="str">
+        <v>Al ingresar su pedido no.</v>
+      </c>
+      <c r="G73" t="str">
+        <v>သင်၏အမှာစာကို input အားဖြင့်။</v>
+      </c>
+      <c r="H73" t="str">
+        <v>ໂດຍການປ້ອນຄໍາສັ່ງຂອງທ່ານບໍ່.</v>
+      </c>
+      <c r="I73" t="str">
+        <v>ដោយបញ្ចូលការបញ្ជាទិញរបស់អ្នកទេ។</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="str">
+        <v>youCanCheckOrderTxt3</v>
+      </c>
+      <c r="B74" t="str">
+        <v>and your email</v>
+      </c>
+      <c r="C74" t="str">
+        <v>และอีเมลของคุณ</v>
+      </c>
+      <c r="D74" t="str">
+        <v>和您的电子邮件</v>
+      </c>
+      <c r="E74" t="str">
+        <v>そしてあなたのメール</v>
+      </c>
+      <c r="F74" t="str">
+        <v>Y tu correo electrónico</v>
+      </c>
+      <c r="G74" t="str">
+        <v>နှင့်သင်၏အီးမေးလ်</v>
+      </c>
+      <c r="H74" t="str">
+        <v>ແລະອີເມວຂອງທ່ານ</v>
+      </c>
+      <c r="I74" t="str">
+        <v>និងអ៊ីមែលរបស់អ្នក</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="str">
+        <v>errFailToUploadQr</v>
+      </c>
+      <c r="B75" t="str">
+        <v>Fail to upload QR</v>
+      </c>
+      <c r="C75" t="str">
+        <v>ไม่สามารถอัปโหลด QR</v>
+      </c>
+      <c r="D75" t="str">
+        <v>无法上传QR</v>
+      </c>
+      <c r="E75" t="str">
+        <v>QRのアップロードに失敗します</v>
+      </c>
+      <c r="F75" t="str">
+        <v>No cargar QR</v>
+      </c>
+      <c r="G75" t="str">
+        <v>QR ကို upload လုပ်ရန်ပျက်ကွက်</v>
+      </c>
+      <c r="H75" t="str">
+        <v>ລົ້ມເຫລວໃນການອັບໂຫລດ qr</v>
+      </c>
+      <c r="I75" t="str">
+        <v>ខកខានមិនបានផ្ទុកឡើង QR</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="str">
+        <v>errFailToUploadEvidence</v>
+      </c>
+      <c r="B76" t="str">
+        <v>Fail to upload evidence</v>
+      </c>
+      <c r="C76" t="str">
+        <v>ไม่สามารถอัปโหลดหลักฐานได้</v>
+      </c>
+      <c r="D76" t="str">
+        <v>无法上传证据</v>
+      </c>
+      <c r="E76" t="str">
+        <v>証拠をアップロードできません</v>
+      </c>
+      <c r="F76" t="str">
+        <v>No subir evidencia</v>
+      </c>
+      <c r="G76" t="str">
+        <v>သက်သေအထောက်အထားတင်ရန်ပျက်ကွက်</v>
+      </c>
+      <c r="H76" t="str">
+        <v>ລົ້ມເຫລວໃນການອັບໂຫລດຫຼັກຖານ</v>
+      </c>
+      <c r="I76" t="str">
+        <v>ខកខានមិនបានបញ្ចូលភស្តុតាង</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>networkErrorTxt1</v>
+      </c>
+      <c r="B77" t="str">
+        <v>We are currently not operational.</v>
+      </c>
+      <c r="C77" t="str">
+        <v>ขณะนี้เราไม่ได้ใช้งาน</v>
+      </c>
+      <c r="D77" t="str">
+        <v>我们目前不运作。</v>
+      </c>
+      <c r="E77" t="str">
+        <v>現在、運用はありません。</v>
+      </c>
+      <c r="F77" t="str">
+        <v>Actualmente no estamos operativos.</v>
+      </c>
+      <c r="G77" t="str">
+        <v>ကျနော်တို့လက်ရှိလည်ပတ်မဟုတ်ပါဘူး။</v>
+      </c>
+      <c r="H77" t="str">
+        <v>ພວກເຮົາປະຈຸບັນບໍ່ໄດ້ດໍາເນີນງານ.</v>
+      </c>
+      <c r="I77" t="str">
+        <v>បច្ចុប្បន្នយើងមិនដំណើរការទេ។</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>networkErrorTxt2</v>
+      </c>
+      <c r="B78" t="str">
+        <v>We apologize for the inconvenience.</v>
+      </c>
+      <c r="C78" t="str">
+        <v>ขออภัยในความไม่สะดวก</v>
+      </c>
+      <c r="D78" t="str">
+        <v>不便之处，我们深表歉意。</v>
+      </c>
+      <c r="E78" t="str">
+        <v>ご不便をおかけして申し訳ございません。</v>
+      </c>
+      <c r="F78" t="str">
+        <v>Pedimos disculpas por las molestias.</v>
+      </c>
+      <c r="G78" t="str">
+        <v>အဆင်မပြေမှုအတွက်တောင်းပန်ပါတယ်</v>
+      </c>
+      <c r="H78" t="str">
+        <v>ພວກເຮົາຂໍອະໄພໃນຄວາມບໍ່ສະດວກ.</v>
+      </c>
+      <c r="I78" t="str">
+        <v>យើងសូមអភ័យទោសចំពោះភាពរអាក់រអួលនេះ។</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="str">
+        <v>mailerSubject</v>
+      </c>
+      <c r="B79" t="str">
+        <v>[ICMM2025] Your order has been received!...</v>
+      </c>
+      <c r="C79" t="str">
+        <v>[ICMM2025] คำสั่งซื้อของคุณได้รับแล้ว! ...</v>
+      </c>
+      <c r="D79" t="str">
+        <v>[ICMM2025]您的订单已收到！</v>
+      </c>
+      <c r="E79" t="str">
+        <v>[ICMM2025]あなたの注文が受け取られました！...</v>
+      </c>
+      <c r="F79" t="str">
+        <v>[ICMM2025] ¡Su pedido ha sido recibido! ...</v>
+      </c>
+      <c r="G79" t="str">
+        <v>[icm2025] သင်၏အမှာစာကိုလက်ခံရရှိခဲ့သည်။</v>
+      </c>
+      <c r="H79" t="str">
+        <v>[ICMM2025] ຄໍາສັ່ງຂອງທ່ານໄດ້ຮັບແລ້ວ! ...</v>
+      </c>
+      <c r="I79" t="str">
+        <v>[ICM2025] ការបញ្ជាទិញរបស់អ្នកត្រូវបានទទួល! ...</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="str">
+        <v>mailerDear</v>
+      </c>
+      <c r="B80" t="str">
+        <v>Dear Valued Customer,</v>
+      </c>
+      <c r="C80" t="str">
+        <v>เรียนลูกค้าที่มีค่า</v>
+      </c>
+      <c r="D80" t="str">
+        <v>尊贵的顾客，</v>
+      </c>
+      <c r="E80" t="str">
+        <v>親愛なる顧客、</v>
+      </c>
+      <c r="F80" t="str">
+        <v>Estimada cliente,</v>
+      </c>
+      <c r="G80" t="str">
+        <v>ချစ်ခင်ရပါသောတန်ဖိုးရှိသောဖောက်သည်,</v>
+      </c>
+      <c r="H80" t="str">
+        <v>ລູກຄ້າທີ່ມີຄຸນຄ່າທີ່ຮັກແພງ,</v>
+      </c>
+      <c r="I80" t="str">
+        <v>អតិថិជនដែលមានតម្លៃសូមគោរព,</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="str">
+        <v>mailerTextSendOrder1</v>
+      </c>
+      <c r="B81" t="str">
+        <v>We have received your order and will confirm it within 24 hours.</v>
+      </c>
+      <c r="C81" t="str">
+        <v>เราได้รับคำสั่งซื้อของคุณและจะยืนยันภายใน 24 ชั่วโมง</v>
+      </c>
+      <c r="D81" t="str">
+        <v>我们已收到您的订单，并将在24小时内确认。</v>
+      </c>
+      <c r="E81" t="str">
+        <v>ご注文を受け取り、24時間以内に確認します。</v>
+      </c>
+      <c r="F81" t="str">
+        <v>Hemos recibido su pedido y lo confirmaremos dentro de las 24 horas.</v>
+      </c>
+      <c r="G81" t="str">
+        <v>သင်၏အမှာစာကိုလက်ခံရရှိပြီး 24 နာရီအတွင်းအတည်ပြုပါလိမ့်မည်။</v>
+      </c>
+      <c r="H81" t="str">
+        <v>ພວກເຮົາໄດ້ຮັບຄໍາສັ່ງຂອງທ່ານແລະຈະຢືນຢັນມັນພາຍໃນ 24 ຊົ່ວໂມງ.</v>
+      </c>
+      <c r="I81" t="str">
+        <v>យើងបានទទួលការបញ្ជាទិញរបស់អ្នកហើយនឹងបញ្ជាក់វាក្នុងរយៈពេល 24 ម៉ោង។</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="str">
+        <v>mailerTextSendOrder2</v>
+      </c>
+      <c r="B82" t="str">
+        <v>You can check your order status by clicking "Check Order Status" and entering your order no. :</v>
+      </c>
+      <c r="C82" t="str">
+        <v>คุณสามารถตรวจสอบสถานะการสั่งซื้อของคุณโดยคลิก "ตรวจสอบสถานะคำสั่งซื้อ" และป้อนหมายเลขคำสั่งซื้อของคุณ -</v>
+      </c>
+      <c r="D82" t="str">
+        <v>您可以通过单击“检查订单状态”并输入订单号来检查您的订单状态。 ：</v>
+      </c>
+      <c r="E82" t="str">
+        <v>「注文ステータスの確認」をクリックして注文番号を入力して、注文ステータスを確認できます。 ：</v>
+      </c>
+      <c r="F82" t="str">
+        <v>Puede verificar el estado de su pedido haciendo clic en "Verifique el estado del pedido" e ingresando su pedido no. :</v>
+      </c>
+      <c r="G82" t="str">
+        <v>"Check order status" ကိုနှိပ်ခြင်းနှင့်သင်၏အမှာစာကိုရိုက်ခြင်းဖြင့်သင်၏အမှာစာ status ကိုစစ်ဆေးနိုင်သည်။ ဖြေ -</v>
+      </c>
+      <c r="H82" t="str">
+        <v>ທ່ານສາມາດກວດເບິ່ງສະຖານະການສັ່ງຊື້ຂອງທ່ານໄດ້ໂດຍການກົດປຸ່ມ "ກວດສອບສະຖານະການສັ່ງຊື້" ແລະໃສ່ຄໍາສັ່ງຂອງທ່ານບໍ່. :</v>
+      </c>
+      <c r="I82" t="str">
+        <v>អ្នកអាចពិនិត្យមើលស្ថានភាពបញ្ជាទិញរបស់អ្នកដោយចុច "ពិនិត្យមើលស្ថានភាពបញ្ជាទិញ" ហើយបញ្ចូលការបញ្ជាទិញរបស់អ្នកទេ។ :</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="str">
+        <v>mailerTextSendOrder3</v>
+      </c>
+      <c r="B83" t="str">
+        <v>Thank you for shopping with us.</v>
+      </c>
+      <c r="C83" t="str">
+        <v>ขอบคุณสำหรับการช็อปปิ้งกับเรา</v>
+      </c>
+      <c r="D83" t="str">
+        <v>感谢您与我们一起购物。</v>
+      </c>
+      <c r="E83" t="str">
+        <v>私たちと一緒に買い物をしてくれてありがとう。</v>
+      </c>
+      <c r="F83" t="str">
+        <v>Gracias por comprar con nosotras.</v>
+      </c>
+      <c r="G83" t="str">
+        <v>ငါတို့နှင့်အတူစျေးဝယ်အတွက်ကျေးဇူးတင်ပါသည်။</v>
+      </c>
+      <c r="H83" t="str">
+        <v>ຂອບໃຈສໍາລັບການໄປຊື້ເຄື່ອງກັບພວກເຮົາ.</v>
+      </c>
+      <c r="I83" t="str">
+        <v>សូមអរគុណចំពោះការដើរទិញឥវ៉ាន់ជាមួយយើង។</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="str">
+        <v>mailerRegards</v>
+      </c>
+      <c r="B84" t="str">
+        <v>Best Regards,</v>
+      </c>
+      <c r="C84" t="str">
+        <v>ขอแสดงความนับถือ</v>
+      </c>
+      <c r="D84" t="str">
+        <v>此致，</v>
+      </c>
+      <c r="E84" t="str">
+        <v>よろしくお願いします、</v>
+      </c>
+      <c r="F84" t="str">
+        <v>Atentamente,</v>
+      </c>
+      <c r="G84" t="str">
+        <v>လေးစားစွာဖြင့်,</v>
+      </c>
+      <c r="H84" t="str">
+        <v>ກ່ຽວກັບທີ່ດີທີ່ສຸດ,</v>
+      </c>
+      <c r="I84" t="str">
+        <v>ដោយក្តីគោរពបំផុត,</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="str">
+        <v>mailerName</v>
+      </c>
+      <c r="B85" t="str">
+        <v>ICMM admin.</v>
+      </c>
+      <c r="C85" t="str">
+        <v>ผู้ดูแลระบบ ICMM</v>
+      </c>
+      <c r="D85" t="str">
+        <v>ICMM管理员。</v>
+      </c>
+      <c r="E85" t="str">
+        <v>ICMM管理者。</v>
+      </c>
+      <c r="F85" t="str">
+        <v>ICMM Admin.</v>
+      </c>
+      <c r="G85" t="str">
+        <v>ICMM admin ။</v>
+      </c>
+      <c r="H85" t="str">
+        <v>ICMM Admin.</v>
+      </c>
+      <c r="I85" t="str">
+        <v>រដ្ឋបាលអាយស៊ីអិមអេមអេមអេមអេមអេស។</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="str">
+        <v>orderNo</v>
+      </c>
+      <c r="B86" t="str">
+        <v>Order number</v>
+      </c>
+      <c r="C86" t="str">
+        <v>หมายเลขสั่งซื้อ</v>
+      </c>
+      <c r="D86" t="str">
+        <v>订单号</v>
+      </c>
+      <c r="E86" t="str">
+        <v>注文番号</v>
+      </c>
+      <c r="F86" t="str">
+        <v>Número de orden</v>
+      </c>
+      <c r="G86" t="str">
+        <v>အော်ဒါနံပါတ်</v>
+      </c>
+      <c r="H86" t="str">
+        <v>ເລກສັ່ງ</v>
+      </c>
+      <c r="I86" t="str">
+        <v>លេខបញ្ជាទិញ</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="str">
+        <v>errOrderNotFound</v>
+      </c>
+      <c r="B87" t="str">
+        <v>Email or order no. not match</v>
+      </c>
+      <c r="C87" t="str">
+        <v>อีเมลหรือสั่งซื้อหมายเลข ไม่ตรงกัน</v>
+      </c>
+      <c r="D87" t="str">
+        <v>电子邮件或订单号。 不匹配</v>
+      </c>
+      <c r="E87" t="str">
+        <v>電子メールまたは注文番号。 一致しません</v>
+      </c>
+      <c r="F87" t="str">
+        <v>Correo electrónico u pedido no. No coinciden</v>
+      </c>
+      <c r="G87" t="str">
+        <v>အီးမေးလ်သို့မဟုတ်အမိန့်အမှတ်။ မကိုက်ညီဘူး</v>
+      </c>
+      <c r="H87" t="str">
+        <v>ອີເມວຫຼືສັ່ງຊື້. ບໍ່ກົງກັນ</v>
+      </c>
+      <c r="I87" t="str">
+        <v>អ៊ីម៉ែលឬបញ្ជាទិញទេ។ មិនត្រូវគ្នា</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="str">
+        <v>errLackData</v>
+      </c>
+      <c r="B88" t="str">
+        <v>Please input email and order no.</v>
+      </c>
+      <c r="C88" t="str">
+        <v>กรุณาป้อนอีเมลและสั่งซื้อหมายเลข</v>
+      </c>
+      <c r="D88" t="str">
+        <v>请输入电子邮件和订购号。</v>
+      </c>
+      <c r="E88" t="str">
+        <v>電子メールを入力して注文してください。</v>
+      </c>
+      <c r="F88" t="str">
+        <v>Ingrese el correo electrónico y el pedido no.</v>
+      </c>
+      <c r="G88" t="str">
+        <v>ကျေးဇူးပြု. အီးမေးလ်နှင့်အမှာစာမပေးပါ။</v>
+      </c>
+      <c r="H88" t="str">
+        <v>ກະລຸນາປ້ອນອີເມວແລະສັ່ງຊື້.</v>
+      </c>
+      <c r="I88" t="str">
+        <v>សូមបញ្ចូលអ៊ីម៉ែលហើយបញ្ជាទិញទេ។</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="str">
+        <v>userNotPaid</v>
+      </c>
+      <c r="B89" t="str">
+        <v>Payment unsuccessful</v>
+      </c>
+      <c r="C89" t="str">
+        <v>การชำระเงินไม่สำเร็จ</v>
+      </c>
+      <c r="D89" t="str">
+        <v>付款失败</v>
+      </c>
+      <c r="E89" t="str">
+        <v>支払いに失敗しました</v>
+      </c>
+      <c r="F89" t="str">
+        <v>Pago fallida</v>
+      </c>
+      <c r="G89" t="str">
+        <v>မအောင်မြင်ငွေပေးချေမှု</v>
+      </c>
+      <c r="H89" t="str">
+        <v>ການຈ່າຍເງິນບໍ່ປະສົບຜົນສໍາເລັດ</v>
+      </c>
+      <c r="I89" t="str">
+        <v>ការទូទាត់មិនបានជោគជ័យ</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="str">
+        <v>waitConfirm</v>
+      </c>
+      <c r="B90" t="str">
+        <v>Wait confirmation</v>
+      </c>
+      <c r="C90" t="str">
+        <v>รอการยืนยัน</v>
+      </c>
+      <c r="D90" t="str">
+        <v>等待确认</v>
+      </c>
+      <c r="E90" t="str">
+        <v>確認確認</v>
+      </c>
+      <c r="F90" t="str">
+        <v>Esperar confirmación</v>
+      </c>
+      <c r="G90" t="str">
+        <v>စောင့်ဆိုင်းအတည်ပြုပါ</v>
+      </c>
+      <c r="H90" t="str">
+        <v>ລໍຖ້າການຢືນຢັນ</v>
+      </c>
+      <c r="I90" t="str">
+        <v>ការរង់ចាំការរង់ចាំ</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="str">
+        <v>confirmed</v>
+      </c>
+      <c r="B91" t="str">
+        <v>Confirmed</v>
+      </c>
+      <c r="C91" t="str">
+        <v>ที่ได้ยืนยันแล้ว</v>
+      </c>
+      <c r="D91" t="str">
+        <v>确认的</v>
+      </c>
+      <c r="E91" t="str">
+        <v>確認済み</v>
+      </c>
+      <c r="F91" t="str">
+        <v>Confirmada</v>
+      </c>
+      <c r="G91" t="str">
+        <v>အတည်ပြုသည်</v>
+      </c>
+      <c r="H91" t="str">
+        <v>ຖືກຢືນຢັນ</v>
+      </c>
+      <c r="I91" t="str">
+        <v>បានបញ្ជាក់</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="str">
+        <v>delivered</v>
+      </c>
+      <c r="B92" t="str">
+        <v>Delivered</v>
+      </c>
+      <c r="C92" t="str">
+        <v>ที่ส่งมอบ</v>
+      </c>
+      <c r="D92" t="str">
+        <v>发表</v>
+      </c>
+      <c r="E92" t="str">
+        <v>配達</v>
+      </c>
+      <c r="F92" t="str">
+        <v>Entregada</v>
+      </c>
+      <c r="G92" t="str">
+        <v>လွှတ်ပေးသည်</v>
+      </c>
+      <c r="H92" t="str">
+        <v>ສົ່ງ</v>
+      </c>
+      <c r="I92" t="str">
+        <v>ប្រគល់ជូន</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="str">
+        <v>pending</v>
+      </c>
+      <c r="B93" t="str">
+        <v>Pending</v>
+      </c>
+      <c r="C93" t="str">
+        <v>รอดำเนินการ</v>
+      </c>
+      <c r="D93" t="str">
+        <v>待办的</v>
+      </c>
+      <c r="E93" t="str">
+        <v>保留中</v>
+      </c>
+      <c r="F93" t="str">
+        <v>Pendiente</v>
+      </c>
+      <c r="G93" t="str">
+        <v>လာမည့်</v>
+      </c>
+      <c r="H93" t="str">
+        <v>ທີ່ລໍຄອຍ</v>
+      </c>
+      <c r="I93" t="str">
+        <v>ដេលមិនតាន់សរមច</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="str">
+        <v>cancelled</v>
+      </c>
+      <c r="B94" t="str">
+        <v>Cancelled</v>
+      </c>
+      <c r="C94" t="str">
+        <v>ยกเลิก</v>
+      </c>
+      <c r="D94" t="str">
+        <v>取消</v>
+      </c>
+      <c r="E94" t="str">
+        <v>キャンセル</v>
+      </c>
+      <c r="F94" t="str">
+        <v>Cancelada</v>
+      </c>
+      <c r="G94" t="str">
+        <v>ပယ်ဖျက်လိုက်သော</v>
+      </c>
+      <c r="H94" t="str">
+        <v>ຍົກເລີກ</v>
+      </c>
+      <c r="I94" t="str">
+        <v>លប់លានផាក</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="str">
+        <v>userNotPaidTxt</v>
+      </c>
+      <c r="B95" t="str">
+        <v>Please create new order.</v>
+      </c>
+      <c r="C95" t="str">
+        <v>โปรดสร้างคำสั่งซื้อใหม่</v>
+      </c>
+      <c r="D95" t="str">
+        <v>请创建新订单。</v>
+      </c>
+      <c r="E95" t="str">
+        <v>新しい注文を作成してください。</v>
+      </c>
+      <c r="F95" t="str">
+        <v>Por favor cree un nuevo pedido.</v>
+      </c>
+      <c r="G95" t="str">
+        <v>ကျေးဇူးပြုပြီးအမှာစာအသစ်ကိုဖန်တီးပါ။</v>
+      </c>
+      <c r="H95" t="str">
+        <v>ກະລຸນາສ້າງຄໍາສັ່ງໃຫມ່.</v>
+      </c>
+      <c r="I95" t="str">
+        <v>សូមបង្កើតការបញ្ជាទិញថ្មី។</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="str">
+        <v>waitConfirmTxt</v>
+      </c>
+      <c r="B96" t="str">
+        <v>Please wait for the admin to confirm your payment and verify all details.</v>
+      </c>
+      <c r="C96" t="str">
+        <v>โปรดรอให้ผู้ดูแลระบบยืนยันการชำระเงินของคุณและยืนยันรายละเอียดทั้งหมด</v>
+      </c>
+      <c r="D96" t="str">
+        <v>请等待管理员确认您的付款并验证所有详细信息。</v>
+      </c>
+      <c r="E96" t="str">
+        <v>管理者が支払いを確認し、すべての詳細を確認するのを待ってください。</v>
+      </c>
+      <c r="F96" t="str">
+        <v>Espere a que el administrador confirme su pago y verifique todos los detalles.</v>
+      </c>
+      <c r="G96" t="str">
+        <v>ကျေးဇူးပြု. သင်၏ငွေပေးချေမှုကိုအတည်ပြုရန်နှင့်အသေးစိတ်အချက်အလက်အားလုံးကိုအတည်ပြုရန် admin ကိုစောင့်ပါ။</v>
+      </c>
+      <c r="H96" t="str">
+        <v>ກະລຸນາລໍຖ້າ admin ເພື່ອຢືນຢັນການຈ່າຍເງິນຂອງທ່ານແລະກວດສອບລາຍລະອຽດທັງຫມົດ.</v>
+      </c>
+      <c r="I96" t="str">
+        <v>សូមរង់ចាំឱ្យអ្នកគ្រប់គ្រងបញ្ជាក់ពីការទូទាត់របស់អ្នកនិងផ្ទៀងផ្ទាត់ព័ត៌មានលម្អិតទាំងអស់។</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="str">
+        <v>confirmedTxt</v>
+      </c>
+      <c r="B97" t="str">
+        <v>Your order has been confirmed. We will notify you again when your order is out for delivery.</v>
+      </c>
+      <c r="C97" t="str">
+        <v>คำสั่งซื้อของคุณได้รับการยืนยันแล้ว เราจะแจ้งให้คุณทราบอีกครั้งเมื่อคำสั่งซื้อของคุณออกเพื่อจัดส่ง</v>
+      </c>
+      <c r="D97" t="str">
+        <v>您的订单已得到确认。 当您的订单出售时，我们将再次通知您。</v>
+      </c>
+      <c r="E97" t="str">
+        <v>ご注文が確認されました。 ご注文が配送中に再度通知します。</v>
+      </c>
+      <c r="F97" t="str">
+        <v>Su pedido ha sido confirmado. Le notificaremos nuevamente cuando su pedido esté fuera para la entrega.</v>
+      </c>
+      <c r="G97" t="str">
+        <v>သင်၏အမှာစာကိုအတည်ပြုပြီးဖြစ်သည်။ သင်၏အမှာစာသည်သင့်မှာကြားမှုကိုပေးပို့ခြင်းအတွက်နောက်တဖန်သင့်အားကျွန်ုပ်တို့အကြောင်းကြားပါမည်။</v>
+      </c>
+      <c r="H97" t="str">
+        <v>ຄໍາສັ່ງຂອງທ່ານໄດ້ຮັບການຢັ້ງຢືນ. ພວກເຮົາຈະແຈ້ງໃຫ້ທ່ານຊາບອີກຄັ້ງເມື່ອການສັ່ງຊື້ຂອງທ່ານອອກສໍາລັບການຈັດສົ່ງ.</v>
+      </c>
+      <c r="I97" t="str">
+        <v>ការបញ្ជាទិញរបស់អ្នកត្រូវបានបញ្ជាក់។ យើងនឹងជូនដំណឹងអ្នកម្តងទៀតនៅពេលការបញ្ជាទិញរបស់អ្នកចេញសម្រាប់ការដឹកជញ្ជូន។</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="str">
+        <v>deliveredTxt</v>
+      </c>
+      <c r="B98" t="str">
+        <v>Your order has been delivered. Please check your delivery tracking.</v>
+      </c>
+      <c r="C98" t="str">
+        <v>คำสั่งซื้อของคุณได้รับการจัดส่งแล้ว โปรดตรวจสอบการติดตามการจัดส่งของคุณ</v>
+      </c>
+      <c r="D98" t="str">
+        <v>您的订单已交付。 请检查您的送货跟踪。</v>
+      </c>
+      <c r="E98" t="str">
+        <v>ご注文が配信されました。 配達追跡を確認してください。</v>
+      </c>
+      <c r="F98" t="str">
+        <v>Su pedido ha sido entregado. Consulte el seguimiento de su entrega.</v>
+      </c>
+      <c r="G98" t="str">
+        <v>သင်၏အမှာစာကိုပေးပို့ခဲ့သည် ကျေးဇူးပြု. သင်၏ပို့ဆောင်မှုခြေရာခံစစ်ဆေးပါ။</v>
+      </c>
+      <c r="H98" t="str">
+        <v>ຄໍາສັ່ງຂອງທ່ານໄດ້ຖືກຈັດສົ່ງແລ້ວ. ກະລຸນາກວດສອບການຕິດຕາມການຈັດສົ່ງຂອງທ່ານ.</v>
+      </c>
+      <c r="I98" t="str">
+        <v>ការបញ្ជាទិញរបស់អ្នកត្រូវបានប្រគល់ជូន។ សូមពិនិត្យមើលការតាមដានការដឹកជញ្ជូនរបស់អ្នក។</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="str">
+        <v>pendingTxt</v>
+      </c>
+      <c r="B99" t="str">
+        <v>Your order is pending, Please contact admin for more information.</v>
+      </c>
+      <c r="C99" t="str">
+        <v>คำสั่งซื้อของคุณอยู่ระหว่างการพิจารณาโปรดติดต่อผู้ดูแลระบบสำหรับข้อมูลเพิ่มเติม</v>
+      </c>
+      <c r="D99" t="str">
+        <v>您的订单待定，请联系管理员以获取更多信息。</v>
+      </c>
+      <c r="E99" t="str">
+        <v>ご注文は保留中です。詳細については、管理者にお問い合わせください。</v>
+      </c>
+      <c r="F99" t="str">
+        <v>Su pedido está pendiente, comuníquese con el administrador para obtener más información.</v>
+      </c>
+      <c r="G99" t="str">
+        <v>သင်၏အမှာစာကိုဆိုင်းငံ့ထားပါ။ ကျေးဇူးပြု. နောက်ထပ်သတင်းအချက်အလက်များအတွက် admin ကိုဆက်သွယ်ပါ။</v>
+      </c>
+      <c r="H99" t="str">
+        <v>ຄໍາສັ່ງຂອງທ່ານກໍາລັງລໍຖ້າ, ກະລຸນາຕິດຕໍ່ເບິ່ງ Admin ສໍາລັບຂໍ້ມູນເພີ່ມເຕີມ.</v>
+      </c>
+      <c r="I99" t="str">
+        <v>ការបញ្ជាទិញរបស់អ្នកកំពុងរង់ចាំសូមទាក់ទងរដ្ឋបាលសម្រាប់ព័ត៌មានបន្ថែម។</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="str">
+        <v>cancelledTxt</v>
+      </c>
+      <c r="B100" t="str">
+        <v>Your order is cancelled, Please contact admin for more information.</v>
+      </c>
+      <c r="C100" t="str">
+        <v>คำสั่งซื้อของคุณถูกยกเลิกโปรดติดต่อผู้ดูแลระบบสำหรับข้อมูลเพิ่มเติม</v>
+      </c>
+      <c r="D100" t="str">
+        <v>您的订单已取消，请联系管理员以获取更多信息。</v>
+      </c>
+      <c r="E100" t="str">
+        <v>ご注文はキャンセルされます。詳細については、管理者にお問い合わせください。</v>
+      </c>
+      <c r="F100" t="str">
+        <v>Su pedido se cancela, comuníquese con el administrador para obtener más información.</v>
+      </c>
+      <c r="G100" t="str">
+        <v>သင်၏အမှာစာကိုဖျက်သိမ်းပြီး, နောက်ထပ်အချက်အလက်များအတွက် admin ကိုဆက်သွယ်ပါ။</v>
+      </c>
+      <c r="H100" t="str">
+        <v>ຄໍາສັ່ງຂອງທ່ານຖືກຍົກເລີກ, ກະລຸນາຕິດຕໍ່ຫາ Admin ສໍາລັບຂໍ້ມູນເພີ່ມເຕີມ.</v>
+      </c>
+      <c r="I100" t="str">
+        <v>ការបញ្ជាទិញរបស់អ្នកត្រូវបានលុបចោលសូមទាក់ទងរដ្ឋបាលសម្រាប់ព័ត៌មានបន្ថែម។</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="str">
+        <v>createdAt</v>
+      </c>
+      <c r="B101" t="str">
+        <v>Created At</v>
+      </c>
+      <c r="C101" t="str">
+        <v>สร้างขึ้นที่</v>
+      </c>
+      <c r="D101" t="str">
+        <v>创建在</v>
+      </c>
+      <c r="E101" t="str">
+        <v>で作成されました</v>
+      </c>
+      <c r="F101" t="str">
+        <v>Creado a</v>
+      </c>
+      <c r="G101" t="str">
+        <v>ဖန်တီးခဲ့တယ်</v>
+      </c>
+      <c r="H101" t="str">
+        <v>ສ້າງຂື້ນທີ່</v>
+      </c>
+      <c r="I101" t="str">
+        <v>បានបង្កើតនៅ</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="str">
+        <v>updatedAt</v>
+      </c>
+      <c r="B102" t="str">
+        <v>Updated At</v>
+      </c>
+      <c r="C102" t="str">
+        <v>อัปเดตที่</v>
+      </c>
+      <c r="D102" t="str">
+        <v>更新在</v>
+      </c>
+      <c r="E102" t="str">
+        <v>で更新されました</v>
+      </c>
+      <c r="F102" t="str">
+        <v>Actualizado en</v>
+      </c>
+      <c r="G102" t="str">
+        <v>မှာ updated</v>
+      </c>
+      <c r="H102" t="str">
+        <v>ອັບເດດຢູ່</v>
+      </c>
+      <c r="I102" t="str">
+        <v>ធ្វើឱ្យទាន់សម័យនៅ</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="str">
+        <v>emsTracking</v>
+      </c>
+      <c r="B103" t="str">
+        <v>EMS Tracking</v>
+      </c>
+      <c r="C103" t="str">
+        <v>การติดตาม EMS</v>
+      </c>
+      <c r="D103" t="str">
+        <v>EMS跟踪</v>
+      </c>
+      <c r="E103" t="str">
+        <v>EMSトラッキング</v>
+      </c>
+      <c r="F103" t="str">
+        <v>Seguimiento de EMS</v>
+      </c>
+      <c r="G103" t="str">
+        <v>EMS ခြေရာခံခြင်း</v>
+      </c>
+      <c r="H103" t="str">
+        <v>ການຕິດຕາມ EMS</v>
+      </c>
+      <c r="I103" t="str">
+        <v>ems តាមដាន</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="str">
+        <v>mailerTextUpdateOrder1</v>
+      </c>
+      <c r="B104" t="str">
+        <v>We have updated your order status or detail.</v>
+      </c>
+      <c r="C104" t="str">
+        <v>เราได้อัปเดตสถานะการสั่งซื้อหรือรายละเอียดของคุณแล้ว</v>
+      </c>
+      <c r="D104" t="str">
+        <v>我们已经更新了您的订单状态或细节。</v>
+      </c>
+      <c r="E104" t="str">
+        <v>ご注文のステータスまたは詳細を更新しました。</v>
+      </c>
+      <c r="F104" t="str">
+        <v>Hemos actualizado el estado o el detalle de su pedido.</v>
+      </c>
+      <c r="G104" t="str">
+        <v>သင်၏အမှာစာအခြေအနေသို့မဟုတ်အသေးစိတ်ကိုကျွန်ုပ်တို့အသစ်ပြောင်းသည်။</v>
+      </c>
+      <c r="H104" t="str">
+        <v>ພວກເຮົາໄດ້ປັບປຸງສະຖານະການສັ່ງຊື້ຂອງທ່ານຫຼືລາຍລະອຽດ.</v>
+      </c>
+      <c r="I104" t="str">
+        <v>យើងបានធ្វើបច្ចុប្បន្នភាពស្ថានភាពបញ្ជាទិញរបស់អ្នកឬលម្អិត។</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="str">
+        <v>mailerTextUpdateOrder2</v>
+      </c>
+      <c r="B105" t="str">
+        <v>You can check your order status by clicking "Check Order Status" and entering your order no. :</v>
+      </c>
+      <c r="C105" t="str">
+        <v>คุณสามารถตรวจสอบสถานะการสั่งซื้อของคุณโดยคลิก "ตรวจสอบสถานะคำสั่งซื้อ" และป้อนหมายเลขคำสั่งซื้อของคุณ -</v>
+      </c>
+      <c r="D105" t="str">
+        <v>您可以通过单击“检查订单状态”并输入订单号来检查您的订单状态。 ：</v>
+      </c>
+      <c r="E105" t="str">
+        <v>「注文ステータスの確認」をクリックして注文番号を入力して、注文ステータスを確認できます。 ：</v>
+      </c>
+      <c r="F105" t="str">
+        <v>Puede verificar el estado de su pedido haciendo clic en "Verifique el estado del pedido" e ingresando su pedido no. :</v>
+      </c>
+      <c r="G105" t="str">
+        <v>"Check order status" ကိုနှိပ်ခြင်းနှင့်သင်၏အမှာစာကိုရိုက်ခြင်းဖြင့်သင်၏အမှာစာ status ကိုစစ်ဆေးနိုင်သည်။ ဖြေ -</v>
+      </c>
+      <c r="H105" t="str">
+        <v>ທ່ານສາມາດກວດເບິ່ງສະຖານະການສັ່ງຊື້ຂອງທ່ານໄດ້ໂດຍການກົດປຸ່ມ "ກວດສອບສະຖານະການສັ່ງຊື້" ແລະໃສ່ຄໍາສັ່ງຂອງທ່ານບໍ່. :</v>
+      </c>
+      <c r="I105" t="str">
+        <v>អ្នកអាចពិនិត្យមើលស្ថានភាពបញ្ជាទិញរបស់អ្នកដោយចុច "ពិនិត្យមើលស្ថានភាពបញ្ជាទិញ" ហើយបញ្ចូលការបញ្ជាទិញរបស់អ្នកទេ។ :</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="str">
+        <v>mailerTextUpdateOrder3</v>
+      </c>
+      <c r="B106" t="str">
+        <v>Thank you for shopping with us.</v>
+      </c>
+      <c r="C106" t="str">
+        <v>ขอบคุณสำหรับการช็อปปิ้งกับเรา</v>
+      </c>
+      <c r="D106" t="str">
+        <v>感谢您与我们一起购物。</v>
+      </c>
+      <c r="E106" t="str">
+        <v>私たちと一緒に買い物をしてくれてありがとう。</v>
+      </c>
+      <c r="F106" t="str">
+        <v>Gracias por comprar con nosotras.</v>
+      </c>
+      <c r="G106" t="str">
+        <v>ငါတို့နှင့်အတူစျေးဝယ်အတွက်ကျေးဇူးတင်ပါသည်။</v>
+      </c>
+      <c r="H106" t="str">
+        <v>ຂອບໃຈສໍາລັບການໄປຊື້ເຄື່ອງກັບພວກເຮົາ.</v>
+      </c>
+      <c r="I106" t="str">
+        <v>សូមអរគុណចំពោះការដើរទិញឥវ៉ាន់ជាមួយយើង។</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="str">
+        <v>mailerSubjectUpdateOrder</v>
+      </c>
+      <c r="B107" t="str">
+        <v>[ICMM2025] Your order has been updated!...</v>
+      </c>
+      <c r="C107" t="str">
+        <v>[ICMM2025] คำสั่งซื้อของคุณได้รับการอัปเดตแล้ว ... ...</v>
+      </c>
+      <c r="D107" t="str">
+        <v>[ICMM2025]您的订单已更新！</v>
+      </c>
+      <c r="E107" t="str">
+        <v>[ICMM2025]ご注文が更新されました！...</v>
+      </c>
+      <c r="F107" t="str">
+        <v>[ICMM2025] ¡Su pedido se ha actualizado! ...</v>
+      </c>
+      <c r="G107" t="str">
+        <v>[icmm2025] သင်၏အမှာစာကိုအသစ်ပြောင်းထားသည်။ ...</v>
+      </c>
+      <c r="H107" t="str">
+        <v>[ICMM2025] ຄໍາສັ່ງຂອງທ່ານໄດ້ຖືກປັບປຸງແລ້ວ! ...</v>
+      </c>
+      <c r="I107" t="str">
+        <v>[ICMM2025] ការបញ្ជាទិញរបស់អ្នកត្រូវបានធ្វើបច្ចុប្បន្នភាព! ...</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>mailerTextFwdOrder1</v>
+      </c>
+      <c r="B108" t="str">
+        <v>We have moved your order to the next state.</v>
+      </c>
+      <c r="C108" t="str">
+        <v>เราย้ายคำสั่งซื้อของคุณไปยังสถานะต่อไป</v>
+      </c>
+      <c r="D108" t="str">
+        <v>我们已经将您的订单转移到了下一个状态。</v>
+      </c>
+      <c r="E108" t="str">
+        <v>ご注文を次の状態に移しました。</v>
+      </c>
+      <c r="F108" t="str">
+        <v>Hemos trasladado su pedido al siguiente estado.</v>
+      </c>
+      <c r="G108" t="str">
+        <v>ငါတို့သည်သင်တို့၏အမိန့်ကိုနောက်ပြည်နယ်သို့ပြောင်းရွှေ့ပါပြီ။</v>
+      </c>
+      <c r="H108" t="str">
+        <v>ພວກເຮົາໄດ້ຍ້າຍຄໍາສັ່ງຂອງທ່ານໄປຍັງລັດຕໍ່ໄປ.</v>
+      </c>
+      <c r="I108" t="str">
+        <v>យើងបានផ្លាស់ប្តូរការបញ្ជាទិញរបស់អ្នកទៅរដ្ឋបន្ទាប់។</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="str">
+        <v>mailerTextFwdOrder2</v>
+      </c>
+      <c r="B109" t="str">
+        <v>You can check your order status by clicking "Check Order Status" and entering your order no. :</v>
+      </c>
+      <c r="C109" t="str">
+        <v>คุณสามารถตรวจสอบสถานะการสั่งซื้อของคุณโดยคลิก "ตรวจสอบสถานะคำสั่งซื้อ" และป้อนหมายเลขคำสั่งซื้อของคุณ -</v>
+      </c>
+      <c r="D109" t="str">
+        <v>您可以通过单击“检查订单状态”并输入订单号来检查您的订单状态。 ：</v>
+      </c>
+      <c r="E109" t="str">
+        <v>「注文ステータスの確認」をクリックして注文番号を入力して、注文ステータスを確認できます。 ：</v>
+      </c>
+      <c r="F109" t="str">
+        <v>Puede verificar el estado de su pedido haciendo clic en "Verifique el estado del pedido" e ingresando su pedido no. :</v>
+      </c>
+      <c r="G109" t="str">
+        <v>"Check order status" ကိုနှိပ်ခြင်းနှင့်သင်၏အမှာစာကိုရိုက်ခြင်းဖြင့်သင်၏အမှာစာ status ကိုစစ်ဆေးနိုင်သည်။ ဖြေ -</v>
+      </c>
+      <c r="H109" t="str">
+        <v>ທ່ານສາມາດກວດເບິ່ງສະຖານະການສັ່ງຊື້ຂອງທ່ານໄດ້ໂດຍການກົດປຸ່ມ "ກວດສອບສະຖານະການສັ່ງຊື້" ແລະໃສ່ຄໍາສັ່ງຂອງທ່ານບໍ່. :</v>
+      </c>
+      <c r="I109" t="str">
+        <v>អ្នកអាចពិនិត្យមើលស្ថានភាពបញ្ជាទិញរបស់អ្នកដោយចុច "ពិនិត្យមើលស្ថានភាពបញ្ជាទិញ" ហើយបញ្ចូលការបញ្ជាទិញរបស់អ្នកទេ។ :</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="str">
+        <v>mailerTextFwdOrder3</v>
+      </c>
+      <c r="B110" t="str">
+        <v>Thank you for shopping with us.</v>
+      </c>
+      <c r="C110" t="str">
+        <v>ขอบคุณสำหรับการช็อปปิ้งกับเรา</v>
+      </c>
+      <c r="D110" t="str">
+        <v>感谢您与我们一起购物。</v>
+      </c>
+      <c r="E110" t="str">
+        <v>私たちと一緒に買い物をしてくれてありがとう。</v>
+      </c>
+      <c r="F110" t="str">
+        <v>Gracias por comprar con nosotras.</v>
+      </c>
+      <c r="G110" t="str">
+        <v>ငါတို့နှင့်အတူစျေးဝယ်အတွက်ကျေးဇူးတင်ပါသည်။</v>
+      </c>
+      <c r="H110" t="str">
+        <v>ຂອບໃຈສໍາລັບການໄປຊື້ເຄື່ອງກັບພວກເຮົາ.</v>
+      </c>
+      <c r="I110" t="str">
+        <v>សូមអរគុណចំពោះការដើរទិញឥវ៉ាន់ជាមួយយើង។</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="str">
+        <v>mailerSubjectFwdOrder</v>
+      </c>
+      <c r="B111" t="str">
+        <v>[ICMM2025] Your order has changed status!...</v>
+      </c>
+      <c r="C111" t="str">
+        <v>[ICMM2025] คำสั่งซื้อของคุณเปลี่ยนสถานะ! ...</v>
+      </c>
+      <c r="D111" t="str">
+        <v>[ICMM2025]您的订单已更改状态！</v>
+      </c>
+      <c r="E111" t="str">
+        <v>[ICMM2025]あなたの注文はステータスを変更しました！...</v>
+      </c>
+      <c r="F111" t="str">
+        <v>[ICMM2025] ¡Tu pedido ha cambiado el estado! ...</v>
+      </c>
+      <c r="G111" t="str">
+        <v>[icmm2025] သင်၏အမှာစာသည် status ကိုပြောင်းလဲလိုက်သည်။</v>
+      </c>
+      <c r="H111" t="str">
+        <v>[ICMM2025] ຄໍາສັ່ງຂອງທ່ານໄດ້ປ່ຽນສະຖານະພາບ! ...</v>
+      </c>
+      <c r="I111" t="str">
+        <v>[ICMM2025] ការបញ្ជាទិញរបស់អ្នកបានផ្លាស់ប្តូរស្ថានភាព! ...</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I60"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I111"/>
   </ignoredErrors>
 </worksheet>
 </file>